--- a/Vokabeln.xlsx
+++ b/Vokabeln.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Japanisch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\OneDrive\Desktop\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{587AA1D5-D865-4F54-A037-A22E09ED51B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E81BF6B-EA10-4E72-BBA3-73A9F14E0BC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D097F432-8699-42C1-A3E5-290C4350ECF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D097F432-8699-42C1-A3E5-290C4350ECF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -661,23 +661,24 @@
   <dimension ref="A1:F434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="3" customWidth="1"/>
-    <col min="2" max="6" width="27.77734375" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="7.28515625" style="3" customWidth="1"/>
+    <col min="2" max="5" width="27.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -695,7 +696,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -708,7 +709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -719,7 +720,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -730,7 +731,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
@@ -741,7 +742,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
@@ -752,2989 +753,2989 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -3755,20 +3756,20 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="27.77734375" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="1" width="7.28515625" style="3" customWidth="1"/>
+    <col min="2" max="5" width="27.7109375" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -3783,7 +3784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
@@ -3795,7 +3796,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -3807,7 +3808,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3819,7 +3820,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -3831,7 +3832,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3843,7 +3844,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -3855,7 +3856,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -3867,7 +3868,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
@@ -3879,7 +3880,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -3891,7 +3892,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3903,7 +3904,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
@@ -3915,2527 +3916,2527 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
     </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
     </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
     </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
     </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
     </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
     </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
     </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
     </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
     </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
     </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
     </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
     </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
     </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
     </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
     </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
     </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
     </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
     </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
     </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
     </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
     </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
     </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
     </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
     </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
     </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
     </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
     </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
     </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
     </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
     </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
     </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
     </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
     </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
     </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
     </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
     </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
     </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
     </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
     </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
     </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
     </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
     </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
     </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
     </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
     </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
     </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
     </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
     </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
     </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
     </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
     </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
     </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
     </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
     </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
     </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
     </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
     </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
     </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
     </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
     </row>
-    <row r="417" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
     </row>
-    <row r="418" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
     </row>
-    <row r="419" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
     </row>
-    <row r="420" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
     </row>
-    <row r="421" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
     </row>
-    <row r="422" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
     </row>
-    <row r="423" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
     </row>
-    <row r="424" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
     </row>
-    <row r="425" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
     </row>
-    <row r="426" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
     </row>
-    <row r="427" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
     </row>
-    <row r="428" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
     </row>
-    <row r="429" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
     </row>
-    <row r="430" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
     </row>
-    <row r="431" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
     </row>
-    <row r="432" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
     </row>
-    <row r="433" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
     </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>

--- a/Vokabeln.xlsx
+++ b/Vokabeln.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\OneDrive\Desktop\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E81BF6B-EA10-4E72-BBA3-73A9F14E0BC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BF72D8-9236-4F51-8606-AEF920F75257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D097F432-8699-42C1-A3E5-290C4350ECF2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t>English</t>
   </si>
@@ -68,39 +68,6 @@
     <t>Yoroshiku onegai shimasu</t>
   </si>
   <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>seven</t>
-  </si>
-  <si>
-    <t>eight</t>
-  </si>
-  <si>
-    <t>nine</t>
-  </si>
-  <si>
-    <t>ten</t>
-  </si>
-  <si>
     <t>rei, maru, zero</t>
   </si>
   <si>
@@ -183,6 +150,186 @@
   </si>
   <si>
     <t>ji pronounced as powerful shee</t>
+  </si>
+  <si>
+    <t>How old do I look?</t>
+  </si>
+  <si>
+    <t>Nansai ni miemasu ka</t>
+  </si>
+  <si>
+    <t>You look [years] old.</t>
+  </si>
+  <si>
+    <t>[years] sai ni miemasu</t>
+  </si>
+  <si>
+    <t>juu ichi</t>
+  </si>
+  <si>
+    <t>juu ni</t>
+  </si>
+  <si>
+    <t>juu san</t>
+  </si>
+  <si>
+    <t>juu yon/shi</t>
+  </si>
+  <si>
+    <t>juu go</t>
+  </si>
+  <si>
+    <t>juu roku</t>
+  </si>
+  <si>
+    <t>juu nana/shichi</t>
+  </si>
+  <si>
+    <t>juu hachi</t>
+  </si>
+  <si>
+    <t>juu kyuu/ku</t>
+  </si>
+  <si>
+    <t>ni juu</t>
+  </si>
+  <si>
+    <t>san juu</t>
+  </si>
+  <si>
+    <t>yon juu</t>
+  </si>
+  <si>
+    <t>go juu</t>
+  </si>
+  <si>
+    <t>roku juu</t>
+  </si>
+  <si>
+    <t>nana juu</t>
+  </si>
+  <si>
+    <t>hachi juu</t>
+  </si>
+  <si>
+    <t>kyuu juu</t>
+  </si>
+  <si>
+    <t>hyaku</t>
+  </si>
+  <si>
+    <t>issai</t>
+  </si>
+  <si>
+    <t>yon sai</t>
+  </si>
+  <si>
+    <t>nana sai</t>
+  </si>
+  <si>
+    <t>hassai</t>
+  </si>
+  <si>
+    <t>kyuu sai</t>
+  </si>
+  <si>
+    <t>jussai</t>
+  </si>
+  <si>
+    <t>juu issai</t>
+  </si>
+  <si>
+    <t>hatachi</t>
+  </si>
+  <si>
+    <t>yon jussai</t>
+  </si>
+  <si>
+    <t>san jussai</t>
+  </si>
+  <si>
+    <t>go jussai</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>(O)namae wa nan desu ka</t>
+  </si>
+  <si>
+    <t>What is you name?</t>
+  </si>
+  <si>
+    <t>My name is [name]</t>
+  </si>
+  <si>
+    <t>Watashi no namae wa [name]
+desu</t>
+  </si>
+  <si>
+    <t>Good afternoon</t>
+  </si>
+  <si>
+    <t>Good morning</t>
+  </si>
+  <si>
+    <t>Good evening</t>
+  </si>
+  <si>
+    <t>Good night</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>Ohayou (gozaimasu)</t>
+  </si>
+  <si>
+    <t>Konnichiwa</t>
+  </si>
+  <si>
+    <t>Konbawa</t>
+  </si>
+  <si>
+    <t>Oyasumi(nasai)</t>
+  </si>
+  <si>
+    <t>Arigatou (gozaimasu)</t>
+  </si>
+  <si>
+    <t>Doumo arigatou gozaimasu 
+(uncommon)</t>
+  </si>
+  <si>
+    <t>I will go and come back / 
+I'll be back</t>
+  </si>
+  <si>
+    <t>Have a good day /
+Take care /
+See you</t>
+  </si>
+  <si>
+    <t>I'm home /
+I'm back</t>
+  </si>
+  <si>
+    <t>Welcome back home</t>
+  </si>
+  <si>
+    <t>itte kimasu</t>
+  </si>
+  <si>
+    <t>itterasshai</t>
+  </si>
+  <si>
+    <t>Tadaima</t>
+  </si>
+  <si>
+    <t>Okaerinasai</t>
+  </si>
+  <si>
+    <t>when returning soon</t>
   </si>
 </sst>
 </file>
@@ -661,7 +808,7 @@
   <dimension ref="A1:F434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -706,7 +853,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -733,10 +880,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -744,102 +891,158 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="F16" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+    <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -3750,26 +3953,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1BC77A-3D26-440A-AA1E-46AA6366D369}">
-  <dimension ref="A1:E434"/>
+  <dimension ref="A1:F434"/>
   <sheetViews>
     <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="3" customWidth="1"/>
     <col min="2" max="5" width="27.7109375" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="11.5703125" style="3"/>
+    <col min="6" max="6" width="23.28515625" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -3783,2664 +3988,3195 @@
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="F2" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>80</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>90</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>100</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="2"/>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="2"/>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F199" s="2"/>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F200" s="2"/>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F201" s="2"/>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="2"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="2"/>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="2"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F206" s="2"/>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F208" s="2"/>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F209" s="2"/>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="2"/>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F211" s="2"/>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F212" s="2"/>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F213" s="2"/>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F214" s="2"/>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F215" s="2"/>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="2"/>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F217" s="2"/>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F218" s="2"/>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F220" s="2"/>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F221" s="2"/>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F223" s="2"/>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
-    </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F224" s="2"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F225" s="2"/>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F226" s="2"/>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F227" s="2"/>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F228" s="2"/>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F229" s="2"/>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F230" s="2"/>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
-    </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
-    </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F232" s="2"/>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F233" s="2"/>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F234" s="2"/>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F235" s="2"/>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F236" s="2"/>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
-    </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F237" s="2"/>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
-    </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F238" s="2"/>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F239" s="2"/>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
-    </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F240" s="2"/>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
-    </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F241" s="2"/>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F242" s="2"/>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
-    </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F243" s="2"/>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
-    </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F244" s="2"/>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
-    </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F245" s="2"/>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F246" s="2"/>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F247" s="2"/>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
-    </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F248" s="2"/>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
-    </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F249" s="2"/>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F250" s="2"/>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F251" s="2"/>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
-    </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F252" s="2"/>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F253" s="2"/>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
-    </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F254" s="2"/>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
-    </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F255" s="2"/>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
-    </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F256" s="2"/>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
-    </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F257" s="2"/>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
-    </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F258" s="2"/>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
-    </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F259" s="2"/>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
-    </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F260" s="2"/>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
-    </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="2"/>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
-    </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="2"/>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="2"/>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
-    </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F264" s="2"/>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
-    </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F265" s="2"/>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
-    </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F266" s="2"/>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
-    </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F267" s="2"/>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
-    </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F268" s="2"/>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
-    </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F269" s="2"/>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
-    </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F270" s="2"/>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
-    </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F271" s="2"/>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
-    </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F272" s="2"/>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
-    </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F273" s="2"/>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
-    </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F274" s="2"/>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
-    </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F275" s="2"/>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
-    </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F276" s="2"/>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
-    </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F277" s="2"/>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
-    </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F278" s="2"/>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
-    </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F279" s="2"/>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
-    </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F280" s="2"/>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
-    </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F281" s="2"/>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
-    </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F282" s="2"/>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
-    </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F283" s="2"/>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
-    </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F284" s="2"/>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
-    </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F285" s="2"/>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
-    </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F286" s="2"/>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
-    </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F287" s="2"/>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
-    </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F288" s="2"/>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
-    </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F289" s="2"/>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
-    </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F290" s="2"/>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
-    </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F291" s="2"/>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
-    </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F292" s="2"/>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
-    </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F293" s="2"/>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
-    </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F294" s="2"/>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
-    </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F295" s="2"/>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
-    </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F296" s="2"/>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
-    </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F297" s="2"/>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
-    </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F298" s="2"/>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
-    </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F299" s="2"/>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
-    </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F300" s="2"/>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
-    </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F301" s="2"/>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
-    </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F302" s="2"/>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
-    </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F303" s="2"/>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
-    </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F304" s="2"/>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
-    </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F305" s="2"/>
+    </row>
+    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
-    </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F306" s="2"/>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
-    </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F307" s="2"/>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
-    </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F308" s="2"/>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
-    </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F309" s="2"/>
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
-    </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F310" s="2"/>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
-    </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F311" s="2"/>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
-    </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F312" s="2"/>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
-    </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F313" s="2"/>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
-    </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F314" s="2"/>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
-    </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F315" s="2"/>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
-    </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F316" s="2"/>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
-    </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F317" s="2"/>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
-    </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F318" s="2"/>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
-    </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F319" s="2"/>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
-    </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F320" s="2"/>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
-    </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F321" s="2"/>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
-    </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F322" s="2"/>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
-    </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F323" s="2"/>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
-    </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F324" s="2"/>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
-    </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F325" s="2"/>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
-    </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F326" s="2"/>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
-    </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F327" s="2"/>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
-    </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F328" s="2"/>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
-    </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F329" s="2"/>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
-    </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F330" s="2"/>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
-    </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F331" s="2"/>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
-    </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F332" s="2"/>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
-    </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F333" s="2"/>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
-    </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F334" s="2"/>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
-    </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F335" s="2"/>
+    </row>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
-    </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F336" s="2"/>
+    </row>
+    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
-    </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F337" s="2"/>
+    </row>
+    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
-    </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F338" s="2"/>
+    </row>
+    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
-    </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F339" s="2"/>
+    </row>
+    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
-    </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F340" s="2"/>
+    </row>
+    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
-    </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F341" s="2"/>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
-    </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F342" s="2"/>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
-    </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F343" s="2"/>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
-    </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F344" s="2"/>
+    </row>
+    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
-    </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F345" s="2"/>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
-    </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F346" s="2"/>
+    </row>
+    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
-    </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F347" s="2"/>
+    </row>
+    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
-    </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F348" s="2"/>
+    </row>
+    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
-    </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F349" s="2"/>
+    </row>
+    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
-    </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F350" s="2"/>
+    </row>
+    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
-    </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F351" s="2"/>
+    </row>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
-    </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F352" s="2"/>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
-    </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F353" s="2"/>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
-    </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F354" s="2"/>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
-    </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F355" s="2"/>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
-    </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F356" s="2"/>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
-    </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F357" s="2"/>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
-    </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F358" s="2"/>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
-    </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F359" s="2"/>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
-    </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F360" s="2"/>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
-    </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F361" s="2"/>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
-    </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F362" s="2"/>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
-    </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F363" s="2"/>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
-    </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F364" s="2"/>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
-    </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F365" s="2"/>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
-    </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F366" s="2"/>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
-    </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F367" s="2"/>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
-    </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F368" s="2"/>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
-    </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F369" s="2"/>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
-    </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F370" s="2"/>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
-    </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F371" s="2"/>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
-    </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F372" s="2"/>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
-    </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F373" s="2"/>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
-    </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F374" s="2"/>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
-    </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F375" s="2"/>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
-    </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F376" s="2"/>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
-    </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F377" s="2"/>
+    </row>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
-    </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F378" s="2"/>
+    </row>
+    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
-    </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F379" s="2"/>
+    </row>
+    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
-    </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F380" s="2"/>
+    </row>
+    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
-    </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F381" s="2"/>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
-    </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F382" s="2"/>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
-    </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F383" s="2"/>
+    </row>
+    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
-    </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F384" s="2"/>
+    </row>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
-    </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F385" s="2"/>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
-    </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F386" s="2"/>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
-    </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F387" s="2"/>
+    </row>
+    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
-    </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F388" s="2"/>
+    </row>
+    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
-    </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F389" s="2"/>
+    </row>
+    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
-    </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F390" s="2"/>
+    </row>
+    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
-    </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F391" s="2"/>
+    </row>
+    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
-    </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F392" s="2"/>
+    </row>
+    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
-    </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F393" s="2"/>
+    </row>
+    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
-    </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F394" s="2"/>
+    </row>
+    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
-    </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F395" s="2"/>
+    </row>
+    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
-    </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F396" s="2"/>
+    </row>
+    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
-    </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F397" s="2"/>
+    </row>
+    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
-    </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F398" s="2"/>
+    </row>
+    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
-    </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F399" s="2"/>
+    </row>
+    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
-    </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F400" s="2"/>
+    </row>
+    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
-    </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F401" s="2"/>
+    </row>
+    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
-    </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F402" s="2"/>
+    </row>
+    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
-    </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F403" s="2"/>
+    </row>
+    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
-    </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F404" s="2"/>
+    </row>
+    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
-    </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F405" s="2"/>
+    </row>
+    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
-    </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F406" s="2"/>
+    </row>
+    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
-    </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F407" s="2"/>
+    </row>
+    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
-    </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F408" s="2"/>
+    </row>
+    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
-    </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F409" s="2"/>
+    </row>
+    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
-    </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F410" s="2"/>
+    </row>
+    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
-    </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F411" s="2"/>
+    </row>
+    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
-    </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F412" s="2"/>
+    </row>
+    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
-    </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F413" s="2"/>
+    </row>
+    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
-    </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F414" s="2"/>
+    </row>
+    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
-    </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F415" s="2"/>
+    </row>
+    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
-    </row>
-    <row r="417" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F416" s="2"/>
+    </row>
+    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
-    </row>
-    <row r="418" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F417" s="2"/>
+    </row>
+    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
-    </row>
-    <row r="419" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F418" s="2"/>
+    </row>
+    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
-    </row>
-    <row r="420" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F419" s="2"/>
+    </row>
+    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
-    </row>
-    <row r="421" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F420" s="2"/>
+    </row>
+    <row r="421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
-    </row>
-    <row r="422" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F421" s="2"/>
+    </row>
+    <row r="422" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
-    </row>
-    <row r="423" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F422" s="2"/>
+    </row>
+    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
-    </row>
-    <row r="424" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F423" s="2"/>
+    </row>
+    <row r="424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
-    </row>
-    <row r="425" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F424" s="2"/>
+    </row>
+    <row r="425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
-    </row>
-    <row r="426" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F425" s="2"/>
+    </row>
+    <row r="426" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
-    </row>
-    <row r="427" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F426" s="2"/>
+    </row>
+    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
-    </row>
-    <row r="428" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F427" s="2"/>
+    </row>
+    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
-    </row>
-    <row r="429" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F428" s="2"/>
+    </row>
+    <row r="429" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
-    </row>
-    <row r="430" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F429" s="2"/>
+    </row>
+    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
-    </row>
-    <row r="431" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F430" s="2"/>
+    </row>
+    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
-    </row>
-    <row r="432" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F431" s="2"/>
+    </row>
+    <row r="432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
-    </row>
-    <row r="433" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F432" s="2"/>
+    </row>
+    <row r="433" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
-    </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F433" s="2"/>
+    </row>
+    <row r="434" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
+      <c r="F434" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Vokabeln.xlsx
+++ b/Vokabeln.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\OneDrive\Desktop\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BF72D8-9236-4F51-8606-AEF920F75257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EF2916-4349-49E9-8B00-417675307575}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D097F432-8699-42C1-A3E5-290C4350ECF2}"/>
+    <workbookView xWindow="16110" yWindow="2745" windowWidth="27000" windowHeight="14235" xr2:uid="{D097F432-8699-42C1-A3E5-290C4350ECF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="137">
   <si>
     <t>English</t>
   </si>
@@ -330,13 +330,136 @@
   </si>
   <si>
     <t>when returning soon</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>The body</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>foot; leg</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>tooth, teeth</t>
+  </si>
+  <si>
+    <t>Bed and bath</t>
+  </si>
+  <si>
+    <t>pillow</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>futon</t>
+  </si>
+  <si>
+    <t>blanket</t>
+  </si>
+  <si>
+    <t>towel</t>
+  </si>
+  <si>
+    <t>bath</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>toothbrush</t>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>kuchi</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>mimi</t>
+  </si>
+  <si>
+    <t>hana</t>
+  </si>
+  <si>
+    <t>kao</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>ashi</t>
+  </si>
+  <si>
+    <t>yubi</t>
+  </si>
+  <si>
+    <t>atama</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>makura</t>
+  </si>
+  <si>
+    <t>beddo</t>
+  </si>
+  <si>
+    <t>moufu</t>
+  </si>
+  <si>
+    <t>taoru</t>
+  </si>
+  <si>
+    <t>ofuro</t>
+  </si>
+  <si>
+    <t>sekken</t>
+  </si>
+  <si>
+    <t>haburashi</t>
+  </si>
+  <si>
+    <t>kagami</t>
+  </si>
+  <si>
+    <t>mado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +470,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -459,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -489,6 +620,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -807,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA9EA53-0633-4A3E-A981-7F5A74FF8FC5}">
   <dimension ref="A1:F434"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,79 +1188,121 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
+    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1138,79 +1314,121 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
+    <row r="34" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3955,7 +4173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1BC77A-3D26-440A-AA1E-46AA6366D369}">
   <dimension ref="A1:F434"/>
   <sheetViews>
-    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>

--- a/Vokabeln.xlsx
+++ b/Vokabeln.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\OneDrive\Desktop\Japanese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EF2916-4349-49E9-8B00-417675307575}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9013D2-BD4A-450B-B0F8-B41BA5043E61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16110" yWindow="2745" windowWidth="27000" windowHeight="14235" xr2:uid="{D097F432-8699-42C1-A3E5-290C4350ECF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D097F432-8699-42C1-A3E5-290C4350ECF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="177">
   <si>
     <t>English</t>
   </si>
@@ -453,13 +453,133 @@
   </si>
   <si>
     <t>mado</t>
+  </si>
+  <si>
+    <t>くち</t>
+  </si>
+  <si>
+    <t>め</t>
+  </si>
+  <si>
+    <t>みみ</t>
+  </si>
+  <si>
+    <t>はな</t>
+  </si>
+  <si>
+    <t>かお</t>
+  </si>
+  <si>
+    <t>て</t>
+  </si>
+  <si>
+    <t>あし</t>
+  </si>
+  <si>
+    <t>あたま</t>
+  </si>
+  <si>
+    <t>は</t>
+  </si>
+  <si>
+    <t>まくら</t>
+  </si>
+  <si>
+    <t>ベッド</t>
+  </si>
+  <si>
+    <t>ふとん</t>
+  </si>
+  <si>
+    <t>もうふ</t>
+  </si>
+  <si>
+    <t>タオル</t>
+  </si>
+  <si>
+    <t>ゆび</t>
+  </si>
+  <si>
+    <t>おふろ</t>
+  </si>
+  <si>
+    <t>せっけん</t>
+  </si>
+  <si>
+    <t>かがみ</t>
+  </si>
+  <si>
+    <t>まど</t>
+  </si>
+  <si>
+    <t>口</t>
+  </si>
+  <si>
+    <t>目</t>
+  </si>
+  <si>
+    <t>耳</t>
+  </si>
+  <si>
+    <t>鼻</t>
+  </si>
+  <si>
+    <t>顔</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>足</t>
+  </si>
+  <si>
+    <t>指</t>
+  </si>
+  <si>
+    <t>頭</t>
+  </si>
+  <si>
+    <t>歯</t>
+  </si>
+  <si>
+    <t>枕</t>
+  </si>
+  <si>
+    <t>布団</t>
+  </si>
+  <si>
+    <t>毛布</t>
+  </si>
+  <si>
+    <t>お風呂</t>
+  </si>
+  <si>
+    <t>石けん</t>
+  </si>
+  <si>
+    <t>歯ブラシ</t>
+  </si>
+  <si>
+    <t>鏡</t>
+  </si>
+  <si>
+    <t>窓</t>
+  </si>
+  <si>
+    <t>ハブラシ</t>
+  </si>
+  <si>
+    <t>The u is silent</t>
+  </si>
+  <si>
+    <t>Almost g at end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +602,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -590,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -616,13 +749,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -941,25 +1086,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA9EA53-0633-4A3E-A981-7F5A74FF8FC5}">
   <dimension ref="A1:F434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="3" customWidth="1"/>
-    <col min="2" max="5" width="27.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="11.5703125" style="3"/>
+    <col min="1" max="1" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2" max="4" width="27.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -970,14 +1116,14 @@
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
@@ -985,12 +1131,12 @@
         <v>5</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -998,10 +1144,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,10 +1155,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1020,10 +1166,10 @@
         <v>32</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1031,10 +1177,10 @@
         <v>35</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
@@ -1042,10 +1188,10 @@
         <v>39</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -1053,10 +1199,10 @@
         <v>41</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
@@ -1064,10 +1210,10 @@
         <v>72</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
@@ -1075,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>77</v>
       </c>
@@ -1086,10 +1232,10 @@
         <v>81</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
@@ -1097,10 +1243,10 @@
         <v>82</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>78</v>
       </c>
@@ -1108,10 +1254,10 @@
         <v>83</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>79</v>
       </c>
@@ -1119,10 +1265,10 @@
         <v>84</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>80</v>
       </c>
@@ -1130,12 +1276,12 @@
         <v>85</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>87</v>
       </c>
@@ -1143,10 +1289,10 @@
         <v>91</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
@@ -1154,12 +1300,12 @@
         <v>92</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>89</v>
       </c>
@@ -1167,10 +1313,10 @@
         <v>93</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>90</v>
       </c>
@@ -1178,2989 +1324,3073 @@
         <v>94</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>157</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>159</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>160</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>164</v>
+      </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>165</v>
+      </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>166</v>
+      </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>169</v>
+      </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>170</v>
+      </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>172</v>
+      </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>173</v>
+      </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="14"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="E50" s="14"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="14"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="14"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="14"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="E56" s="14"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="E60" s="14"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="14"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="14"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="E64" s="14"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="14"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="E66" s="14"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="E67" s="14"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="E68" s="14"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="E69" s="14"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="14"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="E71" s="14"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="E72" s="14"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="E73" s="14"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="14"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="E75" s="14"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="E76" s="14"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="E77" s="14"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="E78" s="14"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="E79" s="14"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="E80" s="14"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="E81" s="14"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="E82" s="14"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="E83" s="14"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="E84" s="14"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="E85" s="14"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="E86" s="14"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="14"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="E88" s="14"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="E89" s="14"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="E90" s="14"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="E91" s="14"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="E92" s="14"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="E93" s="14"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="E94" s="14"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="E95" s="14"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="E96" s="14"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="E97" s="14"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="E98" s="14"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="E99" s="14"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="E100" s="14"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="E101" s="14"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+      <c r="E102" s="14"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="E103" s="14"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+      <c r="E104" s="14"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+      <c r="E105" s="14"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="E106" s="14"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
+      <c r="E107" s="14"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
+      <c r="E108" s="14"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
+      <c r="E109" s="14"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
+      <c r="E110" s="14"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
+      <c r="E111" s="14"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
+      <c r="E112" s="14"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
+      <c r="E113" s="14"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
+      <c r="E114" s="14"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
+      <c r="E115" s="14"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
+      <c r="E116" s="14"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
+      <c r="E117" s="14"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
+      <c r="E118" s="14"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
+      <c r="E119" s="14"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
+      <c r="E120" s="14"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="E121" s="14"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
+      <c r="E122" s="14"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
+      <c r="E123" s="14"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
+      <c r="E124" s="14"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
+      <c r="E125" s="14"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
+      <c r="E126" s="14"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
+      <c r="E127" s="14"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+      <c r="E128" s="14"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
+      <c r="E129" s="14"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
+      <c r="E130" s="14"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
+      <c r="E131" s="14"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
+      <c r="E132" s="14"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
+      <c r="E133" s="14"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
+      <c r="E134" s="14"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
+      <c r="E135" s="14"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
+      <c r="E136" s="14"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
+      <c r="E137" s="14"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
+      <c r="E138" s="14"/>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
+      <c r="E139" s="14"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
+      <c r="E140" s="14"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
+      <c r="E141" s="14"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
+      <c r="E142" s="14"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
+      <c r="E143" s="14"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
+      <c r="E144" s="14"/>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
+      <c r="E145" s="14"/>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
+      <c r="E146" s="14"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
+      <c r="E147" s="14"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
+      <c r="E148" s="14"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
+      <c r="E149" s="14"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
+      <c r="E150" s="14"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
+      <c r="E151" s="14"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
+      <c r="E152" s="14"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
+      <c r="E153" s="14"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
+      <c r="E154" s="14"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
+      <c r="E155" s="14"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
+      <c r="E156" s="14"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
+      <c r="E157" s="14"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
+      <c r="E158" s="14"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
+      <c r="E159" s="14"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
+      <c r="E160" s="14"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
+      <c r="E161" s="14"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
+      <c r="E162" s="14"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
+      <c r="E163" s="14"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
+      <c r="E164" s="14"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
+      <c r="E165" s="14"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
+      <c r="E166" s="14"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
+      <c r="E167" s="14"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
+      <c r="E168" s="14"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
+      <c r="E169" s="14"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
+      <c r="E170" s="14"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
+      <c r="E171" s="14"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
+      <c r="E172" s="14"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
+      <c r="E173" s="14"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
+      <c r="E174" s="14"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
+      <c r="E175" s="14"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
+      <c r="E176" s="14"/>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
+      <c r="E177" s="14"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
+      <c r="E178" s="14"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
+      <c r="E179" s="14"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
+      <c r="E180" s="14"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
+      <c r="E181" s="14"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
+      <c r="E182" s="14"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
+      <c r="E183" s="14"/>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
+      <c r="E184" s="14"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
+      <c r="E185" s="14"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
+      <c r="E186" s="14"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
+      <c r="E187" s="14"/>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
+      <c r="E188" s="14"/>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
+      <c r="E189" s="14"/>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
+      <c r="E190" s="14"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
+      <c r="E191" s="14"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
+      <c r="E192" s="14"/>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
+      <c r="E193" s="14"/>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
+      <c r="E194" s="14"/>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
+      <c r="E195" s="14"/>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
+      <c r="E196" s="14"/>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
+      <c r="E197" s="14"/>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
+      <c r="E198" s="14"/>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
+      <c r="E199" s="14"/>
       <c r="F199" s="2"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
+      <c r="E200" s="14"/>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
+      <c r="E201" s="14"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
+      <c r="E202" s="14"/>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
+      <c r="E203" s="14"/>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
+      <c r="E204" s="14"/>
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
+      <c r="E205" s="14"/>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
+      <c r="E206" s="14"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
+      <c r="E207" s="14"/>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
+      <c r="E208" s="14"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
+      <c r="E209" s="14"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
+      <c r="E210" s="14"/>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
+      <c r="E211" s="14"/>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
+      <c r="E212" s="14"/>
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
+      <c r="E213" s="14"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
+      <c r="E214" s="14"/>
       <c r="F214" s="2"/>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
+      <c r="E215" s="14"/>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
+      <c r="E216" s="14"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
+      <c r="E217" s="14"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
+      <c r="E218" s="14"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
+      <c r="E219" s="14"/>
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
+      <c r="E220" s="14"/>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
+      <c r="E221" s="14"/>
       <c r="F221" s="2"/>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
+      <c r="E222" s="14"/>
       <c r="F222" s="2"/>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
+      <c r="E223" s="14"/>
       <c r="F223" s="2"/>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
+      <c r="E224" s="14"/>
       <c r="F224" s="2"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
+      <c r="E225" s="14"/>
       <c r="F225" s="2"/>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
+      <c r="E226" s="14"/>
       <c r="F226" s="2"/>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
+      <c r="E227" s="14"/>
       <c r="F227" s="2"/>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
+      <c r="E228" s="14"/>
       <c r="F228" s="2"/>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
+      <c r="E229" s="14"/>
       <c r="F229" s="2"/>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
+      <c r="E230" s="14"/>
       <c r="F230" s="2"/>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
+      <c r="E231" s="14"/>
       <c r="F231" s="2"/>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
+      <c r="E232" s="14"/>
       <c r="F232" s="2"/>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
+      <c r="E233" s="14"/>
       <c r="F233" s="2"/>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
+      <c r="E234" s="14"/>
       <c r="F234" s="2"/>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
+      <c r="E235" s="14"/>
       <c r="F235" s="2"/>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
+      <c r="E236" s="14"/>
       <c r="F236" s="2"/>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
+      <c r="E237" s="14"/>
       <c r="F237" s="2"/>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
+      <c r="E238" s="14"/>
       <c r="F238" s="2"/>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
+      <c r="E239" s="14"/>
       <c r="F239" s="2"/>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
+      <c r="E240" s="14"/>
       <c r="F240" s="2"/>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
+      <c r="E241" s="14"/>
       <c r="F241" s="2"/>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
+      <c r="E242" s="14"/>
       <c r="F242" s="2"/>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
+      <c r="E243" s="14"/>
       <c r="F243" s="2"/>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
+      <c r="E244" s="14"/>
       <c r="F244" s="2"/>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
+      <c r="E245" s="14"/>
       <c r="F245" s="2"/>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
+      <c r="E246" s="14"/>
       <c r="F246" s="2"/>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
+      <c r="E247" s="14"/>
       <c r="F247" s="2"/>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
+      <c r="E248" s="14"/>
       <c r="F248" s="2"/>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
+      <c r="E249" s="14"/>
       <c r="F249" s="2"/>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
+      <c r="E250" s="14"/>
       <c r="F250" s="2"/>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
+      <c r="E251" s="14"/>
       <c r="F251" s="2"/>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
+      <c r="E252" s="14"/>
       <c r="F252" s="2"/>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
+      <c r="E253" s="14"/>
       <c r="F253" s="2"/>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
+      <c r="E254" s="14"/>
       <c r="F254" s="2"/>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
+      <c r="E255" s="14"/>
       <c r="F255" s="2"/>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
+      <c r="E256" s="14"/>
       <c r="F256" s="2"/>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
+      <c r="E257" s="14"/>
       <c r="F257" s="2"/>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
+      <c r="E258" s="14"/>
       <c r="F258" s="2"/>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
+      <c r="E259" s="14"/>
       <c r="F259" s="2"/>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
+      <c r="E260" s="14"/>
       <c r="F260" s="2"/>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
+      <c r="E261" s="14"/>
       <c r="F261" s="2"/>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
+      <c r="E262" s="14"/>
       <c r="F262" s="2"/>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
+      <c r="E263" s="14"/>
       <c r="F263" s="2"/>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
+      <c r="E264" s="14"/>
       <c r="F264" s="2"/>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
+      <c r="E265" s="14"/>
       <c r="F265" s="2"/>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
+      <c r="E266" s="14"/>
       <c r="F266" s="2"/>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
+      <c r="E267" s="14"/>
       <c r="F267" s="2"/>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
+      <c r="E268" s="14"/>
       <c r="F268" s="2"/>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
+      <c r="E269" s="14"/>
       <c r="F269" s="2"/>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
+      <c r="E270" s="14"/>
       <c r="F270" s="2"/>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
+      <c r="E271" s="14"/>
       <c r="F271" s="2"/>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
+      <c r="E272" s="14"/>
       <c r="F272" s="2"/>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
+      <c r="E273" s="14"/>
       <c r="F273" s="2"/>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
+      <c r="E274" s="14"/>
       <c r="F274" s="2"/>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
+      <c r="E275" s="14"/>
       <c r="F275" s="2"/>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
+      <c r="E276" s="14"/>
       <c r="F276" s="2"/>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
+      <c r="E277" s="14"/>
       <c r="F277" s="2"/>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
+      <c r="E278" s="14"/>
       <c r="F278" s="2"/>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
+      <c r="E279" s="14"/>
       <c r="F279" s="2"/>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
+      <c r="E280" s="14"/>
       <c r="F280" s="2"/>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
+      <c r="E281" s="14"/>
       <c r="F281" s="2"/>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
+      <c r="E282" s="14"/>
       <c r="F282" s="2"/>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
+      <c r="E283" s="14"/>
       <c r="F283" s="2"/>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
+      <c r="E284" s="14"/>
       <c r="F284" s="2"/>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
+      <c r="E285" s="14"/>
       <c r="F285" s="2"/>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
+      <c r="E286" s="14"/>
       <c r="F286" s="2"/>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
+      <c r="E287" s="14"/>
       <c r="F287" s="2"/>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
+      <c r="E288" s="14"/>
       <c r="F288" s="2"/>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
+      <c r="E289" s="14"/>
       <c r="F289" s="2"/>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
+      <c r="E290" s="14"/>
       <c r="F290" s="2"/>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
+      <c r="E291" s="14"/>
       <c r="F291" s="2"/>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
+      <c r="E292" s="14"/>
       <c r="F292" s="2"/>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
+      <c r="E293" s="14"/>
       <c r="F293" s="2"/>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
+      <c r="E294" s="14"/>
       <c r="F294" s="2"/>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
+      <c r="E295" s="14"/>
       <c r="F295" s="2"/>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
+      <c r="E296" s="14"/>
       <c r="F296" s="2"/>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
+      <c r="E297" s="14"/>
       <c r="F297" s="2"/>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
+      <c r="E298" s="14"/>
       <c r="F298" s="2"/>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
+      <c r="E299" s="14"/>
       <c r="F299" s="2"/>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
-      <c r="E300" s="2"/>
+      <c r="E300" s="14"/>
       <c r="F300" s="2"/>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
-      <c r="E301" s="2"/>
+      <c r="E301" s="14"/>
       <c r="F301" s="2"/>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
-      <c r="E302" s="2"/>
+      <c r="E302" s="14"/>
       <c r="F302" s="2"/>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
-      <c r="E303" s="2"/>
+      <c r="E303" s="14"/>
       <c r="F303" s="2"/>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
-      <c r="E304" s="2"/>
+      <c r="E304" s="14"/>
       <c r="F304" s="2"/>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
-      <c r="E305" s="2"/>
+      <c r="E305" s="14"/>
       <c r="F305" s="2"/>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
-      <c r="E306" s="2"/>
+      <c r="E306" s="14"/>
       <c r="F306" s="2"/>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
-      <c r="E307" s="2"/>
+      <c r="E307" s="14"/>
       <c r="F307" s="2"/>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
-      <c r="E308" s="2"/>
+      <c r="E308" s="14"/>
       <c r="F308" s="2"/>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
-      <c r="E309" s="2"/>
+      <c r="E309" s="14"/>
       <c r="F309" s="2"/>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
-      <c r="E310" s="2"/>
+      <c r="E310" s="14"/>
       <c r="F310" s="2"/>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
+      <c r="E311" s="14"/>
       <c r="F311" s="2"/>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
-      <c r="E312" s="2"/>
+      <c r="E312" s="14"/>
       <c r="F312" s="2"/>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
-      <c r="E313" s="2"/>
+      <c r="E313" s="14"/>
       <c r="F313" s="2"/>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
-      <c r="E314" s="2"/>
+      <c r="E314" s="14"/>
       <c r="F314" s="2"/>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
-      <c r="E315" s="2"/>
+      <c r="E315" s="14"/>
       <c r="F315" s="2"/>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
-      <c r="E316" s="2"/>
+      <c r="E316" s="14"/>
       <c r="F316" s="2"/>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
-      <c r="E317" s="2"/>
+      <c r="E317" s="14"/>
       <c r="F317" s="2"/>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
-      <c r="E318" s="2"/>
+      <c r="E318" s="14"/>
       <c r="F318" s="2"/>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
-      <c r="E319" s="2"/>
+      <c r="E319" s="14"/>
       <c r="F319" s="2"/>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
-      <c r="E320" s="2"/>
+      <c r="E320" s="14"/>
       <c r="F320" s="2"/>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
-      <c r="E321" s="2"/>
+      <c r="E321" s="14"/>
       <c r="F321" s="2"/>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
-      <c r="E322" s="2"/>
+      <c r="E322" s="14"/>
       <c r="F322" s="2"/>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
-      <c r="E323" s="2"/>
+      <c r="E323" s="14"/>
       <c r="F323" s="2"/>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
-      <c r="E324" s="2"/>
+      <c r="E324" s="14"/>
       <c r="F324" s="2"/>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
-      <c r="E325" s="2"/>
+      <c r="E325" s="14"/>
       <c r="F325" s="2"/>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
-      <c r="E326" s="2"/>
+      <c r="E326" s="14"/>
       <c r="F326" s="2"/>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
-      <c r="E327" s="2"/>
+      <c r="E327" s="14"/>
       <c r="F327" s="2"/>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
-      <c r="E328" s="2"/>
+      <c r="E328" s="14"/>
       <c r="F328" s="2"/>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
-      <c r="E329" s="2"/>
+      <c r="E329" s="14"/>
       <c r="F329" s="2"/>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
-      <c r="E330" s="2"/>
+      <c r="E330" s="14"/>
       <c r="F330" s="2"/>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
-      <c r="E331" s="2"/>
+      <c r="E331" s="14"/>
       <c r="F331" s="2"/>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
-      <c r="E332" s="2"/>
+      <c r="E332" s="14"/>
       <c r="F332" s="2"/>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
-      <c r="E333" s="2"/>
+      <c r="E333" s="14"/>
       <c r="F333" s="2"/>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
-      <c r="E334" s="2"/>
+      <c r="E334" s="14"/>
       <c r="F334" s="2"/>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
-      <c r="E335" s="2"/>
+      <c r="E335" s="14"/>
       <c r="F335" s="2"/>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
-      <c r="E336" s="2"/>
+      <c r="E336" s="14"/>
       <c r="F336" s="2"/>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
-      <c r="E337" s="2"/>
+      <c r="E337" s="14"/>
       <c r="F337" s="2"/>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
-      <c r="E338" s="2"/>
+      <c r="E338" s="14"/>
       <c r="F338" s="2"/>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
-      <c r="E339" s="2"/>
+      <c r="E339" s="14"/>
       <c r="F339" s="2"/>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
-      <c r="E340" s="2"/>
+      <c r="E340" s="14"/>
       <c r="F340" s="2"/>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
-      <c r="E341" s="2"/>
+      <c r="E341" s="14"/>
       <c r="F341" s="2"/>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
-      <c r="E342" s="2"/>
+      <c r="E342" s="14"/>
       <c r="F342" s="2"/>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
-      <c r="E343" s="2"/>
+      <c r="E343" s="14"/>
       <c r="F343" s="2"/>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
+      <c r="E344" s="14"/>
       <c r="F344" s="2"/>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
-      <c r="E345" s="2"/>
+      <c r="E345" s="14"/>
       <c r="F345" s="2"/>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
-      <c r="E346" s="2"/>
+      <c r="E346" s="14"/>
       <c r="F346" s="2"/>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
-      <c r="E347" s="2"/>
+      <c r="E347" s="14"/>
       <c r="F347" s="2"/>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
-      <c r="E348" s="2"/>
+      <c r="E348" s="14"/>
       <c r="F348" s="2"/>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
-      <c r="E349" s="2"/>
+      <c r="E349" s="14"/>
       <c r="F349" s="2"/>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
-      <c r="E350" s="2"/>
+      <c r="E350" s="14"/>
       <c r="F350" s="2"/>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
-      <c r="E351" s="2"/>
+      <c r="E351" s="14"/>
       <c r="F351" s="2"/>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
-      <c r="E352" s="2"/>
+      <c r="E352" s="14"/>
       <c r="F352" s="2"/>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
-      <c r="E353" s="2"/>
+      <c r="E353" s="14"/>
       <c r="F353" s="2"/>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
-      <c r="E354" s="2"/>
+      <c r="E354" s="14"/>
       <c r="F354" s="2"/>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
-      <c r="E355" s="2"/>
+      <c r="E355" s="14"/>
       <c r="F355" s="2"/>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
-      <c r="E356" s="2"/>
+      <c r="E356" s="14"/>
       <c r="F356" s="2"/>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
-      <c r="E357" s="2"/>
+      <c r="E357" s="14"/>
       <c r="F357" s="2"/>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
-      <c r="E358" s="2"/>
+      <c r="E358" s="14"/>
       <c r="F358" s="2"/>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
+      <c r="E359" s="14"/>
       <c r="F359" s="2"/>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
-      <c r="E360" s="2"/>
+      <c r="E360" s="14"/>
       <c r="F360" s="2"/>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
-      <c r="E361" s="2"/>
+      <c r="E361" s="14"/>
       <c r="F361" s="2"/>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
-      <c r="E362" s="2"/>
+      <c r="E362" s="14"/>
       <c r="F362" s="2"/>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
-      <c r="E363" s="2"/>
+      <c r="E363" s="14"/>
       <c r="F363" s="2"/>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
-      <c r="E364" s="2"/>
+      <c r="E364" s="14"/>
       <c r="F364" s="2"/>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
-      <c r="E365" s="2"/>
+      <c r="E365" s="14"/>
       <c r="F365" s="2"/>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
-      <c r="E366" s="2"/>
+      <c r="E366" s="14"/>
       <c r="F366" s="2"/>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
-      <c r="E367" s="2"/>
+      <c r="E367" s="14"/>
       <c r="F367" s="2"/>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
-      <c r="E368" s="2"/>
+      <c r="E368" s="14"/>
       <c r="F368" s="2"/>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
-      <c r="E369" s="2"/>
+      <c r="E369" s="14"/>
       <c r="F369" s="2"/>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
-      <c r="E370" s="2"/>
+      <c r="E370" s="14"/>
       <c r="F370" s="2"/>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
-      <c r="E371" s="2"/>
+      <c r="E371" s="14"/>
       <c r="F371" s="2"/>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
-      <c r="E372" s="2"/>
+      <c r="E372" s="14"/>
       <c r="F372" s="2"/>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
-      <c r="E373" s="2"/>
+      <c r="E373" s="14"/>
       <c r="F373" s="2"/>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
-      <c r="E374" s="2"/>
+      <c r="E374" s="14"/>
       <c r="F374" s="2"/>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
-      <c r="E375" s="2"/>
+      <c r="E375" s="14"/>
       <c r="F375" s="2"/>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
-      <c r="E376" s="2"/>
+      <c r="E376" s="14"/>
       <c r="F376" s="2"/>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
-      <c r="E377" s="2"/>
+      <c r="E377" s="14"/>
       <c r="F377" s="2"/>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
-      <c r="E378" s="2"/>
+      <c r="E378" s="14"/>
       <c r="F378" s="2"/>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
-      <c r="E379" s="2"/>
+      <c r="E379" s="14"/>
       <c r="F379" s="2"/>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
-      <c r="E380" s="2"/>
+      <c r="E380" s="14"/>
       <c r="F380" s="2"/>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
-      <c r="E381" s="2"/>
+      <c r="E381" s="14"/>
       <c r="F381" s="2"/>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
-      <c r="E382" s="2"/>
+      <c r="E382" s="14"/>
       <c r="F382" s="2"/>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
-      <c r="E383" s="2"/>
+      <c r="E383" s="14"/>
       <c r="F383" s="2"/>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
-      <c r="E384" s="2"/>
+      <c r="E384" s="14"/>
       <c r="F384" s="2"/>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
-      <c r="E385" s="2"/>
+      <c r="E385" s="14"/>
       <c r="F385" s="2"/>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
-      <c r="E386" s="2"/>
+      <c r="E386" s="14"/>
       <c r="F386" s="2"/>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
-      <c r="E387" s="2"/>
+      <c r="E387" s="14"/>
       <c r="F387" s="2"/>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
-      <c r="E388" s="2"/>
+      <c r="E388" s="14"/>
       <c r="F388" s="2"/>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
-      <c r="E389" s="2"/>
+      <c r="E389" s="14"/>
       <c r="F389" s="2"/>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
-      <c r="E390" s="2"/>
+      <c r="E390" s="14"/>
       <c r="F390" s="2"/>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
-      <c r="E391" s="2"/>
+      <c r="E391" s="14"/>
       <c r="F391" s="2"/>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
-      <c r="E392" s="2"/>
+      <c r="E392" s="14"/>
       <c r="F392" s="2"/>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
-      <c r="E393" s="2"/>
+      <c r="E393" s="14"/>
       <c r="F393" s="2"/>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
-      <c r="E394" s="2"/>
+      <c r="E394" s="14"/>
       <c r="F394" s="2"/>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
-      <c r="E395" s="2"/>
+      <c r="E395" s="14"/>
       <c r="F395" s="2"/>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
-      <c r="E396" s="2"/>
+      <c r="E396" s="14"/>
       <c r="F396" s="2"/>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
-      <c r="E397" s="2"/>
+      <c r="E397" s="14"/>
       <c r="F397" s="2"/>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
-      <c r="E398" s="2"/>
+      <c r="E398" s="14"/>
       <c r="F398" s="2"/>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
-      <c r="E399" s="2"/>
+      <c r="E399" s="14"/>
       <c r="F399" s="2"/>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
-      <c r="E400" s="2"/>
+      <c r="E400" s="14"/>
       <c r="F400" s="2"/>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
-      <c r="E401" s="2"/>
+      <c r="E401" s="14"/>
       <c r="F401" s="2"/>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
-      <c r="E402" s="2"/>
+      <c r="E402" s="14"/>
       <c r="F402" s="2"/>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
-      <c r="E403" s="2"/>
+      <c r="E403" s="14"/>
       <c r="F403" s="2"/>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
-      <c r="E404" s="2"/>
+      <c r="E404" s="14"/>
       <c r="F404" s="2"/>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
-      <c r="E405" s="2"/>
+      <c r="E405" s="14"/>
       <c r="F405" s="2"/>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
-      <c r="E406" s="2"/>
+      <c r="E406" s="14"/>
       <c r="F406" s="2"/>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
-      <c r="E407" s="2"/>
+      <c r="E407" s="14"/>
       <c r="F407" s="2"/>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
-      <c r="E408" s="2"/>
+      <c r="E408" s="14"/>
       <c r="F408" s="2"/>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
-      <c r="E409" s="2"/>
+      <c r="E409" s="14"/>
       <c r="F409" s="2"/>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
-      <c r="E410" s="2"/>
+      <c r="E410" s="14"/>
       <c r="F410" s="2"/>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
-      <c r="E411" s="2"/>
+      <c r="E411" s="14"/>
       <c r="F411" s="2"/>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
-      <c r="E412" s="2"/>
+      <c r="E412" s="14"/>
       <c r="F412" s="2"/>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
-      <c r="E413" s="2"/>
+      <c r="E413" s="14"/>
       <c r="F413" s="2"/>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
-      <c r="E414" s="2"/>
+      <c r="E414" s="14"/>
       <c r="F414" s="2"/>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
-      <c r="E415" s="2"/>
+      <c r="E415" s="14"/>
       <c r="F415" s="2"/>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
-      <c r="E416" s="2"/>
+      <c r="E416" s="14"/>
       <c r="F416" s="2"/>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
-      <c r="E417" s="2"/>
+      <c r="E417" s="14"/>
       <c r="F417" s="2"/>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
-      <c r="E418" s="2"/>
+      <c r="E418" s="14"/>
       <c r="F418" s="2"/>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
-      <c r="E419" s="2"/>
+      <c r="E419" s="14"/>
       <c r="F419" s="2"/>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
-      <c r="E420" s="2"/>
+      <c r="E420" s="14"/>
       <c r="F420" s="2"/>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
-      <c r="E421" s="2"/>
+      <c r="E421" s="14"/>
       <c r="F421" s="2"/>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
-      <c r="E422" s="2"/>
+      <c r="E422" s="14"/>
       <c r="F422" s="2"/>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
-      <c r="E423" s="2"/>
+      <c r="E423" s="14"/>
       <c r="F423" s="2"/>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
-      <c r="E424" s="2"/>
+      <c r="E424" s="14"/>
       <c r="F424" s="2"/>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
-      <c r="E425" s="2"/>
+      <c r="E425" s="14"/>
       <c r="F425" s="2"/>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
-      <c r="E426" s="2"/>
+      <c r="E426" s="14"/>
       <c r="F426" s="2"/>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
-      <c r="E427" s="2"/>
+      <c r="E427" s="14"/>
       <c r="F427" s="2"/>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
-      <c r="E428" s="2"/>
+      <c r="E428" s="14"/>
       <c r="F428" s="2"/>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
-      <c r="E429" s="2"/>
+      <c r="E429" s="14"/>
       <c r="F429" s="2"/>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
-      <c r="E430" s="2"/>
+      <c r="E430" s="14"/>
       <c r="F430" s="2"/>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
-      <c r="E431" s="2"/>
+      <c r="E431" s="14"/>
       <c r="F431" s="2"/>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
-      <c r="E432" s="2"/>
+      <c r="E432" s="14"/>
       <c r="F432" s="2"/>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
-      <c r="E433" s="2"/>
+      <c r="E433" s="14"/>
       <c r="F433" s="2"/>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
-      <c r="E434" s="2"/>
+      <c r="E434" s="14"/>
       <c r="F434" s="2"/>
     </row>
   </sheetData>
@@ -4177,22 +4407,22 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="3" customWidth="1"/>
-    <col min="2" max="5" width="27.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="11.5703125" style="3"/>
+    <col min="1" max="1" width="7.33203125" style="3" customWidth="1"/>
+    <col min="2" max="5" width="27.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4206,11 +4436,11 @@
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7">
         <v>0</v>
       </c>
@@ -4223,7 +4453,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -4238,7 +4468,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -4251,7 +4481,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -4264,7 +4494,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -4279,7 +4509,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -4292,7 +4522,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -4305,7 +4535,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -4320,7 +4550,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -4335,7 +4565,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -4350,7 +4580,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -4365,7 +4595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -4378,7 +4608,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -4389,7 +4619,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -4400,7 +4630,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -4411,7 +4641,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -4422,7 +4652,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -4433,7 +4663,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -4444,7 +4674,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -4455,7 +4685,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -4466,7 +4696,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -4479,7 +4709,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>30</v>
       </c>
@@ -4492,7 +4722,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>40</v>
       </c>
@@ -4505,7 +4735,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>50</v>
       </c>
@@ -4518,7 +4748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>60</v>
       </c>
@@ -4531,7 +4761,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>70</v>
       </c>
@@ -4542,7 +4772,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>80</v>
       </c>
@@ -4553,7 +4783,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>90</v>
       </c>
@@ -4564,7 +4794,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>100</v>
       </c>
@@ -4575,2821 +4805,2821 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>

--- a/Vokabeln.xlsx
+++ b/Vokabeln.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9013D2-BD4A-450B-B0F8-B41BA5043E61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9B529C-A5D4-4720-BCD7-3A0CDA93C888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D097F432-8699-42C1-A3E5-290C4350ECF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{D097F432-8699-42C1-A3E5-290C4350ECF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
-    <sheet name="Numbers" sheetId="3" r:id="rId2"/>
+    <sheet name="Alternate" sheetId="4" r:id="rId2"/>
+    <sheet name="Numbers" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="295">
   <si>
     <t>English</t>
   </si>
@@ -573,6 +574,360 @@
   </si>
   <si>
     <t>Almost g at end</t>
+  </si>
+  <si>
+    <t>Lesson 1</t>
+  </si>
+  <si>
+    <t>What?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>Mr., Mrs. etc</t>
+  </si>
+  <si>
+    <t>Common last names</t>
+  </si>
+  <si>
+    <t>nani</t>
+  </si>
+  <si>
+    <t>hai</t>
+  </si>
+  <si>
+    <t>iie</t>
+  </si>
+  <si>
+    <t>inu</t>
+  </si>
+  <si>
+    <t>neko</t>
+  </si>
+  <si>
+    <t>~san</t>
+  </si>
+  <si>
+    <t>Tanaka, Kobayashi</t>
+  </si>
+  <si>
+    <t>なに</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>いいえ</t>
+  </si>
+  <si>
+    <t>いぬ</t>
+  </si>
+  <si>
+    <t>ねこ</t>
+  </si>
+  <si>
+    <t>たなか、こばやし</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>犬</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>田中、小林</t>
+  </si>
+  <si>
+    <t>Do you understand?</t>
+  </si>
+  <si>
+    <t>Wakarimasu ka</t>
+  </si>
+  <si>
+    <t>Yes, I do understand</t>
+  </si>
+  <si>
+    <t>Hai, wakarimasu</t>
+  </si>
+  <si>
+    <t>No, I don't understand</t>
+  </si>
+  <si>
+    <t>iie, wakarimasen</t>
+  </si>
+  <si>
+    <t>Wakarimasen</t>
+  </si>
+  <si>
+    <t>Mou ichido itte kudasai</t>
+  </si>
+  <si>
+    <t>Motto yukkuri itte kudasai</t>
+  </si>
+  <si>
+    <t>Please speak more slowly</t>
+  </si>
+  <si>
+    <t>Please say it once again</t>
+  </si>
+  <si>
+    <t>I don't understand / I don't know</t>
+  </si>
+  <si>
+    <t>What is it?</t>
+  </si>
+  <si>
+    <t>Nan desu ka</t>
+  </si>
+  <si>
+    <t>Never to oneself and to own family</t>
+  </si>
+  <si>
+    <t>anata</t>
+  </si>
+  <si>
+    <t>あなた</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>ie</t>
+  </si>
+  <si>
+    <t>いえ</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>to buy</t>
+  </si>
+  <si>
+    <t>younger sister</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>pencil</t>
+  </si>
+  <si>
+    <t>older sister</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>to wake up</t>
+  </si>
+  <si>
+    <t>akai</t>
+  </si>
+  <si>
+    <t>imouto</t>
+  </si>
+  <si>
+    <t>kau</t>
+  </si>
+  <si>
+    <t>usagi</t>
+  </si>
+  <si>
+    <t>enpitsu</t>
+  </si>
+  <si>
+    <t>oneesan</t>
+  </si>
+  <si>
+    <t>omoshiroi</t>
+  </si>
+  <si>
+    <t>isu</t>
+  </si>
+  <si>
+    <t>okiru</t>
+  </si>
+  <si>
+    <t>painting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nephew</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>oi</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>a ray fish</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>to meet</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>ao</t>
+  </si>
+  <si>
+    <t>to say</t>
+  </si>
+  <si>
+    <t>iu</t>
+  </si>
+  <si>
+    <t>ue</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>ooi</t>
+  </si>
+  <si>
+    <t>ei</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>あかい</t>
+  </si>
+  <si>
+    <t>いもうと</t>
+  </si>
+  <si>
+    <t>かう</t>
+  </si>
+  <si>
+    <t>うさぎ</t>
+  </si>
+  <si>
+    <t>えんぴつ</t>
+  </si>
+  <si>
+    <t>おねえさん</t>
+  </si>
+  <si>
+    <t>おもしろい</t>
+  </si>
+  <si>
+    <t>いす</t>
+  </si>
+  <si>
+    <t>おきる</t>
+  </si>
+  <si>
+    <t>え</t>
+  </si>
+  <si>
+    <t>いい</t>
+  </si>
+  <si>
+    <t>おい</t>
+  </si>
+  <si>
+    <t>あい</t>
+  </si>
+  <si>
+    <t>えい</t>
+  </si>
+  <si>
+    <t>おおい</t>
+  </si>
+  <si>
+    <t>あう</t>
+  </si>
+  <si>
+    <t>うえ</t>
+  </si>
+  <si>
+    <t>いう</t>
+  </si>
+  <si>
+    <t>あお</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>akachan</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>kaeru</t>
+  </si>
+  <si>
+    <t>okoru</t>
+  </si>
+  <si>
+    <t>uchuu</t>
+  </si>
+  <si>
+    <t>to get mad</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>ushi</t>
+  </si>
+  <si>
+    <t>あかちゃん</t>
+  </si>
+  <si>
+    <t>うし</t>
+  </si>
+  <si>
+    <t>かえる</t>
+  </si>
+  <si>
+    <t>おこる</t>
+  </si>
+  <si>
+    <t>うちゅう</t>
   </si>
 </sst>
 </file>
@@ -723,7 +1078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -769,6 +1124,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA9EA53-0633-4A3E-A981-7F5A74FF8FC5}">
   <dimension ref="A1:F434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -1671,121 +2034,221 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
+      <c r="B46" s="16" t="s">
+        <v>177</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="14"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="14"/>
+      <c r="B47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>198</v>
+      </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="14"/>
+      <c r="B48" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="14"/>
+      <c r="B49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="14"/>
+      <c r="B50" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>199</v>
+      </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="14"/>
+      <c r="B51" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>200</v>
+      </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="14"/>
+      <c r="B53" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>201</v>
+      </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="14"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="D55" s="2"/>
       <c r="E55" s="14"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="D56" s="2"/>
       <c r="E56" s="14"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>208</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="E57" s="14"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="D58" s="2"/>
       <c r="E58" s="14"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="D59" s="2"/>
       <c r="E59" s="14"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="D60" s="2"/>
       <c r="E60" s="14"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="E61" s="14"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="E62" s="14"/>
       <c r="F62" s="2"/>
     </row>
@@ -4400,6 +4863,2943 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA7744C-B8B8-48D7-8A33-004AE603749E}">
+  <dimension ref="B1:F396"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="4" width="27.77734375" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="17"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="17"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="17"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="17"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="17"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="17"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="17"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="17"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="17"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="17"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="17"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="17"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="17"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="17"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="17"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="17"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="17"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="17"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="17"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="17"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="17"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="17"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="17"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="17"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="17"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="17"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="17"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="17"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="17"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="17"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="17"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="17"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="17"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="17"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="17"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="17"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="17"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="17"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="17"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="17"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="17"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="17"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="17"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="17"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="17"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="17"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="17"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="17"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="17"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="17"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="17"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="17"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="17"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="17"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="17"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="17"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="17"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="17"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="17"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="17"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="17"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="17"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="17"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="17"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="17"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="17"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="17"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="17"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="17"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="17"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="17"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="17"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="17"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="17"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="17"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="17"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="17"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="17"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="17"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="17"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="17"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="17"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="17"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="17"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="17"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="17"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="17"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="17"/>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="17"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="17"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="17"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="17"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="17"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="17"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="17"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="17"/>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="17"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="17"/>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="17"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="17"/>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="17"/>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="17"/>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="17"/>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="17"/>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="17"/>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="17"/>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="17"/>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="17"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="17"/>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="17"/>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="17"/>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="17"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="17"/>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="17"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="17"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="19"/>
+      <c r="F196" s="17"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="19"/>
+      <c r="F197" s="17"/>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="19"/>
+      <c r="F198" s="17"/>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="19"/>
+      <c r="F199" s="17"/>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="19"/>
+      <c r="F200" s="17"/>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="19"/>
+      <c r="F201" s="17"/>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="17"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="17"/>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="17"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="17"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="17"/>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="17"/>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="19"/>
+      <c r="F208" s="17"/>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="19"/>
+      <c r="F209" s="17"/>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="19"/>
+      <c r="F210" s="17"/>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="19"/>
+      <c r="F211" s="17"/>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="17"/>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="17"/>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="19"/>
+      <c r="F214" s="17"/>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="19"/>
+      <c r="F215" s="17"/>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="19"/>
+      <c r="F216" s="17"/>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="19"/>
+      <c r="F217" s="17"/>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="19"/>
+      <c r="F218" s="17"/>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="17"/>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="19"/>
+      <c r="F220" s="17"/>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="19"/>
+      <c r="F221" s="17"/>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="19"/>
+      <c r="F222" s="17"/>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="19"/>
+      <c r="F223" s="17"/>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="19"/>
+      <c r="F224" s="17"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="19"/>
+      <c r="F225" s="17"/>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="19"/>
+      <c r="F226" s="17"/>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="19"/>
+      <c r="F227" s="17"/>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="19"/>
+      <c r="F228" s="17"/>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="19"/>
+      <c r="F229" s="17"/>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="19"/>
+      <c r="F230" s="17"/>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="19"/>
+      <c r="F231" s="17"/>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="17"/>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="19"/>
+      <c r="F233" s="17"/>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="19"/>
+      <c r="F234" s="17"/>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="19"/>
+      <c r="F235" s="17"/>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="19"/>
+      <c r="F236" s="17"/>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="19"/>
+      <c r="F237" s="17"/>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="19"/>
+      <c r="F238" s="17"/>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="19"/>
+      <c r="F239" s="17"/>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="19"/>
+      <c r="F240" s="17"/>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="19"/>
+      <c r="F241" s="17"/>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="19"/>
+      <c r="F242" s="17"/>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="19"/>
+      <c r="F243" s="17"/>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="19"/>
+      <c r="F244" s="17"/>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="19"/>
+      <c r="F245" s="17"/>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="19"/>
+      <c r="F246" s="17"/>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="19"/>
+      <c r="F247" s="17"/>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="19"/>
+      <c r="F248" s="17"/>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="19"/>
+      <c r="F249" s="17"/>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="19"/>
+      <c r="F250" s="17"/>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="19"/>
+      <c r="F251" s="17"/>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="19"/>
+      <c r="F252" s="17"/>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="19"/>
+      <c r="F253" s="17"/>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="19"/>
+      <c r="F254" s="17"/>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="19"/>
+      <c r="F255" s="17"/>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="19"/>
+      <c r="F256" s="17"/>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="19"/>
+      <c r="F257" s="17"/>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="19"/>
+      <c r="F258" s="17"/>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="19"/>
+      <c r="F259" s="17"/>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="19"/>
+      <c r="F260" s="17"/>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="19"/>
+      <c r="F261" s="17"/>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="19"/>
+      <c r="F262" s="17"/>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="19"/>
+      <c r="F263" s="17"/>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="19"/>
+      <c r="F264" s="17"/>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="19"/>
+      <c r="F265" s="17"/>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="19"/>
+      <c r="F266" s="17"/>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="19"/>
+      <c r="F267" s="17"/>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="19"/>
+      <c r="F268" s="17"/>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="19"/>
+      <c r="F269" s="17"/>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="19"/>
+      <c r="F270" s="17"/>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="19"/>
+      <c r="F271" s="17"/>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="19"/>
+      <c r="F272" s="17"/>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="19"/>
+      <c r="F273" s="17"/>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="19"/>
+      <c r="F274" s="17"/>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="19"/>
+      <c r="F275" s="17"/>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="19"/>
+      <c r="F276" s="17"/>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="19"/>
+      <c r="F277" s="17"/>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="19"/>
+      <c r="F278" s="17"/>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="19"/>
+      <c r="F279" s="17"/>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="19"/>
+      <c r="F280" s="17"/>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="19"/>
+      <c r="F281" s="17"/>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="19"/>
+      <c r="F282" s="17"/>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="19"/>
+      <c r="F283" s="17"/>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="19"/>
+      <c r="F284" s="17"/>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="19"/>
+      <c r="F285" s="17"/>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="19"/>
+      <c r="F286" s="17"/>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="19"/>
+      <c r="F287" s="17"/>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="19"/>
+      <c r="F288" s="17"/>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="19"/>
+      <c r="F289" s="17"/>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="19"/>
+      <c r="F290" s="17"/>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="19"/>
+      <c r="F291" s="17"/>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="19"/>
+      <c r="F292" s="17"/>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="19"/>
+      <c r="F293" s="17"/>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="19"/>
+      <c r="F294" s="17"/>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="19"/>
+      <c r="F295" s="17"/>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="19"/>
+      <c r="F296" s="17"/>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="19"/>
+      <c r="F297" s="17"/>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="19"/>
+      <c r="F298" s="17"/>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="19"/>
+      <c r="F299" s="17"/>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="19"/>
+      <c r="F300" s="17"/>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="19"/>
+      <c r="F301" s="17"/>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="19"/>
+      <c r="F302" s="17"/>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="19"/>
+      <c r="F303" s="17"/>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="19"/>
+      <c r="F304" s="17"/>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="19"/>
+      <c r="F305" s="17"/>
+    </row>
+    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="19"/>
+      <c r="F306" s="17"/>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="19"/>
+      <c r="F307" s="17"/>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="19"/>
+      <c r="F308" s="17"/>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="19"/>
+      <c r="F309" s="17"/>
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="19"/>
+      <c r="F310" s="17"/>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="19"/>
+      <c r="F311" s="17"/>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="19"/>
+      <c r="F312" s="17"/>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="19"/>
+      <c r="F313" s="17"/>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="19"/>
+      <c r="F314" s="17"/>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="19"/>
+      <c r="F315" s="17"/>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="19"/>
+      <c r="F316" s="17"/>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="19"/>
+      <c r="F317" s="17"/>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="19"/>
+      <c r="F318" s="17"/>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="19"/>
+      <c r="F319" s="17"/>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="19"/>
+      <c r="F320" s="17"/>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="19"/>
+      <c r="F321" s="17"/>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="19"/>
+      <c r="F322" s="17"/>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="19"/>
+      <c r="F323" s="17"/>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="19"/>
+      <c r="F324" s="17"/>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="19"/>
+      <c r="F325" s="17"/>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="19"/>
+      <c r="F326" s="17"/>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="19"/>
+      <c r="F327" s="17"/>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="19"/>
+      <c r="F328" s="17"/>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="19"/>
+      <c r="F329" s="17"/>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="19"/>
+      <c r="F330" s="17"/>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="19"/>
+      <c r="F331" s="17"/>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="19"/>
+      <c r="F332" s="17"/>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="19"/>
+      <c r="F333" s="17"/>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="19"/>
+      <c r="F334" s="17"/>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="19"/>
+      <c r="F335" s="17"/>
+    </row>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="19"/>
+      <c r="F336" s="17"/>
+    </row>
+    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="19"/>
+      <c r="F337" s="17"/>
+    </row>
+    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="19"/>
+      <c r="F338" s="17"/>
+    </row>
+    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="19"/>
+      <c r="F339" s="17"/>
+    </row>
+    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="19"/>
+      <c r="F340" s="17"/>
+    </row>
+    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="19"/>
+      <c r="F341" s="17"/>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="19"/>
+      <c r="F342" s="17"/>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="19"/>
+      <c r="F343" s="17"/>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="19"/>
+      <c r="F344" s="17"/>
+    </row>
+    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="19"/>
+      <c r="F345" s="17"/>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="19"/>
+      <c r="F346" s="17"/>
+    </row>
+    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="19"/>
+      <c r="F347" s="17"/>
+    </row>
+    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="19"/>
+      <c r="F348" s="17"/>
+    </row>
+    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="19"/>
+      <c r="F349" s="17"/>
+    </row>
+    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="19"/>
+      <c r="F350" s="17"/>
+    </row>
+    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="19"/>
+      <c r="F351" s="17"/>
+    </row>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="19"/>
+      <c r="F352" s="17"/>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="19"/>
+      <c r="F353" s="17"/>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="19"/>
+      <c r="F354" s="17"/>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="19"/>
+      <c r="F355" s="17"/>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="19"/>
+      <c r="F356" s="17"/>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="19"/>
+      <c r="F357" s="17"/>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="19"/>
+      <c r="F358" s="17"/>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="19"/>
+      <c r="F359" s="17"/>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="19"/>
+      <c r="F360" s="17"/>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="19"/>
+      <c r="F361" s="17"/>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="19"/>
+      <c r="F362" s="17"/>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="19"/>
+      <c r="F363" s="17"/>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="19"/>
+      <c r="F364" s="17"/>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="19"/>
+      <c r="F365" s="17"/>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="19"/>
+      <c r="F366" s="17"/>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="19"/>
+      <c r="F367" s="17"/>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="19"/>
+      <c r="F368" s="17"/>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="19"/>
+      <c r="F369" s="17"/>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="19"/>
+      <c r="F370" s="17"/>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
+      <c r="E371" s="19"/>
+      <c r="F371" s="17"/>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="19"/>
+      <c r="F372" s="17"/>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="19"/>
+      <c r="F373" s="17"/>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="19"/>
+      <c r="F374" s="17"/>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="19"/>
+      <c r="F375" s="17"/>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="1"/>
+      <c r="E376" s="19"/>
+      <c r="F376" s="17"/>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="19"/>
+      <c r="F377" s="17"/>
+    </row>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1"/>
+      <c r="E378" s="19"/>
+      <c r="F378" s="17"/>
+    </row>
+    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="19"/>
+      <c r="F379" s="17"/>
+    </row>
+    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="19"/>
+      <c r="F380" s="17"/>
+    </row>
+    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="19"/>
+      <c r="F381" s="17"/>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="19"/>
+      <c r="F382" s="17"/>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+      <c r="E383" s="19"/>
+      <c r="F383" s="17"/>
+    </row>
+    <row r="384" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="1"/>
+      <c r="E384" s="19"/>
+      <c r="F384" s="17"/>
+    </row>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="19"/>
+      <c r="F385" s="17"/>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="19"/>
+      <c r="F386" s="17"/>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
+      <c r="E387" s="19"/>
+      <c r="F387" s="17"/>
+    </row>
+    <row r="388" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
+      <c r="E388" s="19"/>
+      <c r="F388" s="17"/>
+    </row>
+    <row r="389" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="19"/>
+      <c r="F389" s="17"/>
+    </row>
+    <row r="390" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="19"/>
+      <c r="F390" s="17"/>
+    </row>
+    <row r="391" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="1"/>
+      <c r="E391" s="19"/>
+      <c r="F391" s="17"/>
+    </row>
+    <row r="392" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="1"/>
+      <c r="E392" s="19"/>
+      <c r="F392" s="17"/>
+    </row>
+    <row r="393" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="19"/>
+      <c r="F393" s="17"/>
+    </row>
+    <row r="394" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="19"/>
+    </row>
+    <row r="395" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+      <c r="E395" s="19"/>
+    </row>
+    <row r="396" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1BC77A-3D26-440A-AA1E-46AA6366D369}">
   <dimension ref="A1:F434"/>
   <sheetViews>

--- a/Vokabeln.xlsx
+++ b/Vokabeln.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9B529C-A5D4-4720-BCD7-3A0CDA93C888}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D09B0F-9E89-439C-9550-9A46473FE98F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{D097F432-8699-42C1-A3E5-290C4350ECF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D097F432-8699-42C1-A3E5-290C4350ECF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="365">
   <si>
     <t>English</t>
   </si>
@@ -684,9 +684,6 @@
     <t>Please say it once again</t>
   </si>
   <si>
-    <t>I don't understand / I don't know</t>
-  </si>
-  <si>
     <t>What is it?</t>
   </si>
   <si>
@@ -928,6 +925,220 @@
   </si>
   <si>
     <t>うちゅう</t>
+  </si>
+  <si>
+    <t>Lesson 2</t>
+  </si>
+  <si>
+    <t>dore</t>
+  </si>
+  <si>
+    <t>which one</t>
+  </si>
+  <si>
+    <t>three or more</t>
+  </si>
+  <si>
+    <t>this one</t>
+  </si>
+  <si>
+    <t>that one</t>
+  </si>
+  <si>
+    <t>that one over there</t>
+  </si>
+  <si>
+    <t>two items</t>
+  </si>
+  <si>
+    <t>retasu</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>yasai</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>vegetable</t>
+  </si>
+  <si>
+    <t>lettuce</t>
+  </si>
+  <si>
+    <t>kore</t>
+  </si>
+  <si>
+    <t>sore</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>docchi</t>
+  </si>
+  <si>
+    <t>kocchi</t>
+  </si>
+  <si>
+    <t>socchi</t>
+  </si>
+  <si>
+    <t>acchi</t>
+  </si>
+  <si>
+    <t>furu-tsu</t>
+  </si>
+  <si>
+    <t>どれ</t>
+  </si>
+  <si>
+    <t>これ</t>
+  </si>
+  <si>
+    <t>それ</t>
+  </si>
+  <si>
+    <t>あれ</t>
+  </si>
+  <si>
+    <t>どっち</t>
+  </si>
+  <si>
+    <t>こっち</t>
+  </si>
+  <si>
+    <t>そっち</t>
+  </si>
+  <si>
+    <t>あっち</t>
+  </si>
+  <si>
+    <t>レタス</t>
+  </si>
+  <si>
+    <t>バナナ</t>
+  </si>
+  <si>
+    <t>やさい</t>
+  </si>
+  <si>
+    <t>フルーツ</t>
+  </si>
+  <si>
+    <t>野菜</t>
+  </si>
+  <si>
+    <t>sushi</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>kuruma</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>kudamono</t>
+  </si>
+  <si>
+    <t>konpyu-ta-</t>
+  </si>
+  <si>
+    <t>hon</t>
+  </si>
+  <si>
+    <t>zasshi</t>
+  </si>
+  <si>
+    <t>くだもの</t>
+  </si>
+  <si>
+    <t>すし</t>
+  </si>
+  <si>
+    <t>ペン</t>
+  </si>
+  <si>
+    <t>くるま</t>
+  </si>
+  <si>
+    <t>コンピューター</t>
+  </si>
+  <si>
+    <t>ほん</t>
+  </si>
+  <si>
+    <t>ざっし</t>
+  </si>
+  <si>
+    <t>果物</t>
+  </si>
+  <si>
+    <t>寿司</t>
+  </si>
+  <si>
+    <t>車</t>
+  </si>
+  <si>
+    <t>本</t>
+  </si>
+  <si>
+    <t>雑誌</t>
+  </si>
+  <si>
+    <t>Can you speak Japanese?</t>
+  </si>
+  <si>
+    <t>Can you speak English?</t>
+  </si>
+  <si>
+    <t>A little</t>
+  </si>
+  <si>
+    <t>Not at all</t>
+  </si>
+  <si>
+    <t>I am studying Japanese</t>
+  </si>
+  <si>
+    <t>Eigo ga hanasemasu ka</t>
+  </si>
+  <si>
+    <t>Sukoshi</t>
+  </si>
+  <si>
+    <t>Zenzen</t>
+  </si>
+  <si>
+    <t>Nihongo o benkyou shiteimasu</t>
+  </si>
+  <si>
+    <t>Nihongo ga hanasemasu ka</t>
+  </si>
+  <si>
+    <t>I don't understand / 
+I don't know</t>
+  </si>
+  <si>
+    <t>Tomorrow</t>
+  </si>
+  <si>
+    <t>Ashita</t>
   </si>
 </sst>
 </file>
@@ -972,7 +1183,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -988,6 +1199,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,7 +1301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1125,13 +1348,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1447,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA9EA53-0633-4A3E-A981-7F5A74FF8FC5}">
-  <dimension ref="A1:F434"/>
+  <dimension ref="A1:F435"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2034,13 +2272,13 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="2"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="20"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
@@ -2131,7 +2369,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
@@ -2182,9 +2420,9 @@
       <c r="E56" s="14"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="2" t="s">
-        <v>213</v>
+    <row r="57" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>208</v>
@@ -2217,10 +2455,10 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="14"/>
@@ -2228,26 +2466,26 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="2"/>
@@ -2260,183 +2498,365 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="2"/>
+      <c r="B64" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="23"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="14"/>
+      <c r="B66" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>317</v>
+      </c>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="14"/>
+      <c r="B67" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>318</v>
+      </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="14"/>
+      <c r="B68" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>319</v>
+      </c>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="14"/>
+      <c r="B70" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>321</v>
+      </c>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="14"/>
+      <c r="B71" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>322</v>
+      </c>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="14"/>
+      <c r="B72" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>323</v>
+      </c>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="14"/>
+      <c r="B73" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>324</v>
+      </c>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="14"/>
+      <c r="B74" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>325</v>
+      </c>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="14"/>
+      <c r="B75" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>328</v>
+      </c>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="14"/>
+      <c r="B76" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>327</v>
+      </c>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="14"/>
+      <c r="B77" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>347</v>
+      </c>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="14"/>
+      <c r="B78" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>348</v>
+      </c>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="14"/>
+      <c r="B79" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>342</v>
+      </c>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="14"/>
+      <c r="B80" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>349</v>
+      </c>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="14"/>
+      <c r="B81" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>344</v>
+      </c>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="14"/>
+      <c r="B82" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>350</v>
+      </c>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="14"/>
+      <c r="B83" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>351</v>
+      </c>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="B84" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="D84" s="2"/>
       <c r="E84" s="14"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="14"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="B86" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="D86" s="2"/>
       <c r="E86" s="14"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D87" s="2"/>
       <c r="E87" s="14"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="D88" s="2"/>
       <c r="E88" s="14"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="B89" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="D89" s="2"/>
       <c r="E89" s="14"/>
       <c r="F89" s="2"/>
@@ -4855,6 +5275,13 @@
       <c r="D434" s="2"/>
       <c r="E434" s="14"/>
       <c r="F434" s="2"/>
+    </row>
+    <row r="435" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B435" s="2"/>
+      <c r="C435" s="2"/>
+      <c r="D435" s="2"/>
+      <c r="E435" s="14"/>
+      <c r="F435" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4866,14 +5293,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA7744C-B8B8-48D7-8A33-004AE603749E}">
   <dimension ref="B1:F396"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="4" width="27.77734375" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" style="17" customWidth="1"/>
     <col min="6" max="6" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4897,2902 +5324,2902 @@
     </row>
     <row r="3" spans="2:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E19" s="19"/>
+        <v>276</v>
+      </c>
+      <c r="E19" s="18"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E20" s="19"/>
+        <v>277</v>
+      </c>
+      <c r="E20" s="18"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="17"/>
+        <v>278</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="17"/>
+        <v>289</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="17"/>
+        <v>290</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="17"/>
+        <v>291</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="17"/>
+        <v>292</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="17"/>
+        <v>293</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="17"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="17"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="17"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="17"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="17"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="17"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="17"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="17"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="17"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="16"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="17"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="16"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="17"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="16"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="17"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="16"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="17"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="16"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="17"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="16"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="17"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="16"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="17"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="16"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="17"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="16"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="17"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="16"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="17"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="16"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="17"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="16"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="17"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="16"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="17"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="17"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="16"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="17"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="16"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="17"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="16"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="17"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="16"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="17"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="16"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="17"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="16"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="17"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="16"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="17"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="16"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="17"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="16"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="17"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="16"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="17"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="16"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="17"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="16"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="17"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="16"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="17"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="16"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="17"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="16"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="17"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="16"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="17"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="16"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="17"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="16"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="17"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="16"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="17"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="16"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="17"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="16"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="17"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="16"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="17"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="16"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="17"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="16"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="17"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="16"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="17"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="16"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="17"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="16"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="17"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="16"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="17"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="16"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="17"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="16"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="17"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="16"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="17"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="16"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="17"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="16"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="17"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="16"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="17"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="16"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="17"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="16"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="17"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="16"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="17"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="16"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="17"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="16"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="17"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="16"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="17"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="16"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="17"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="16"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="17"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="16"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="17"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="16"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="17"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="16"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="17"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="16"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="17"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="16"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="17"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="16"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="17"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="16"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="17"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="16"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="17"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="16"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="17"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="16"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="17"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="16"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="17"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="16"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="17"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="16"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="17"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="16"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="17"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="16"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="17"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="16"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="17"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="16"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="17"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="16"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="17"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="16"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="17"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="16"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="17"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="16"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="17"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="16"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="17"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="16"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="17"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="16"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="17"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="16"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="17"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="16"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="17"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="16"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="17"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="16"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="17"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="16"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="17"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="16"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="17"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="16"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="17"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="16"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="17"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="16"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="17"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="16"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="17"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="16"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="17"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="16"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="17"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="16"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="17"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="16"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="17"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="16"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="17"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="16"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="17"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="16"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="17"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="16"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="17"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="16"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="17"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="16"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="17"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="16"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="17"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="16"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="17"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="16"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="17"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="16"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="17"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="16"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="17"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="16"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="17"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="16"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="17"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="16"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="17"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="16"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="17"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="16"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="17"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="16"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="17"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="16"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="17"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="16"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="17"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="16"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="17"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="16"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="17"/>
+      <c r="E166" s="18"/>
+      <c r="F166" s="16"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="17"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="16"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="17"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="16"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="17"/>
+      <c r="E169" s="18"/>
+      <c r="F169" s="16"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
-      <c r="E170" s="19"/>
-      <c r="F170" s="17"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="16"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="17"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="16"/>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="17"/>
+      <c r="E172" s="18"/>
+      <c r="F172" s="16"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="17"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="16"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="17"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="16"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="17"/>
+      <c r="E175" s="18"/>
+      <c r="F175" s="16"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="17"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="16"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="17"/>
+      <c r="E177" s="18"/>
+      <c r="F177" s="16"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="17"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="16"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="17"/>
+      <c r="E179" s="18"/>
+      <c r="F179" s="16"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="17"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="16"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="17"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="16"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="17"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="16"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="17"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="16"/>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
-      <c r="E184" s="19"/>
-      <c r="F184" s="17"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="16"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="17"/>
+      <c r="E185" s="18"/>
+      <c r="F185" s="16"/>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
-      <c r="E186" s="19"/>
-      <c r="F186" s="17"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="16"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
-      <c r="E187" s="19"/>
-      <c r="F187" s="17"/>
+      <c r="E187" s="18"/>
+      <c r="F187" s="16"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
-      <c r="E188" s="19"/>
-      <c r="F188" s="17"/>
+      <c r="E188" s="18"/>
+      <c r="F188" s="16"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
-      <c r="E189" s="19"/>
-      <c r="F189" s="17"/>
+      <c r="E189" s="18"/>
+      <c r="F189" s="16"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
-      <c r="E190" s="19"/>
-      <c r="F190" s="17"/>
+      <c r="E190" s="18"/>
+      <c r="F190" s="16"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
-      <c r="E191" s="19"/>
-      <c r="F191" s="17"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="16"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
-      <c r="E192" s="19"/>
-      <c r="F192" s="17"/>
+      <c r="E192" s="18"/>
+      <c r="F192" s="16"/>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="17"/>
+      <c r="E193" s="18"/>
+      <c r="F193" s="16"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="17"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="16"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
-      <c r="E195" s="19"/>
-      <c r="F195" s="17"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="16"/>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
-      <c r="E196" s="19"/>
-      <c r="F196" s="17"/>
+      <c r="E196" s="18"/>
+      <c r="F196" s="16"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
-      <c r="E197" s="19"/>
-      <c r="F197" s="17"/>
+      <c r="E197" s="18"/>
+      <c r="F197" s="16"/>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
-      <c r="E198" s="19"/>
-      <c r="F198" s="17"/>
+      <c r="E198" s="18"/>
+      <c r="F198" s="16"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
-      <c r="E199" s="19"/>
-      <c r="F199" s="17"/>
+      <c r="E199" s="18"/>
+      <c r="F199" s="16"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
-      <c r="E200" s="19"/>
-      <c r="F200" s="17"/>
+      <c r="E200" s="18"/>
+      <c r="F200" s="16"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="17"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="16"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
-      <c r="E202" s="19"/>
-      <c r="F202" s="17"/>
+      <c r="E202" s="18"/>
+      <c r="F202" s="16"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="19"/>
-      <c r="F203" s="17"/>
+      <c r="E203" s="18"/>
+      <c r="F203" s="16"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
-      <c r="E204" s="19"/>
-      <c r="F204" s="17"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="16"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
-      <c r="E205" s="19"/>
-      <c r="F205" s="17"/>
+      <c r="E205" s="18"/>
+      <c r="F205" s="16"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
-      <c r="E206" s="19"/>
-      <c r="F206" s="17"/>
+      <c r="E206" s="18"/>
+      <c r="F206" s="16"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
-      <c r="E207" s="19"/>
-      <c r="F207" s="17"/>
+      <c r="E207" s="18"/>
+      <c r="F207" s="16"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
-      <c r="E208" s="19"/>
-      <c r="F208" s="17"/>
+      <c r="E208" s="18"/>
+      <c r="F208" s="16"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
-      <c r="E209" s="19"/>
-      <c r="F209" s="17"/>
+      <c r="E209" s="18"/>
+      <c r="F209" s="16"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
-      <c r="E210" s="19"/>
-      <c r="F210" s="17"/>
+      <c r="E210" s="18"/>
+      <c r="F210" s="16"/>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="19"/>
-      <c r="F211" s="17"/>
+      <c r="E211" s="18"/>
+      <c r="F211" s="16"/>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
-      <c r="E212" s="19"/>
-      <c r="F212" s="17"/>
+      <c r="E212" s="18"/>
+      <c r="F212" s="16"/>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
-      <c r="E213" s="19"/>
-      <c r="F213" s="17"/>
+      <c r="E213" s="18"/>
+      <c r="F213" s="16"/>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
-      <c r="E214" s="19"/>
-      <c r="F214" s="17"/>
+      <c r="E214" s="18"/>
+      <c r="F214" s="16"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
-      <c r="E215" s="19"/>
-      <c r="F215" s="17"/>
+      <c r="E215" s="18"/>
+      <c r="F215" s="16"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
-      <c r="E216" s="19"/>
-      <c r="F216" s="17"/>
+      <c r="E216" s="18"/>
+      <c r="F216" s="16"/>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
-      <c r="E217" s="19"/>
-      <c r="F217" s="17"/>
+      <c r="E217" s="18"/>
+      <c r="F217" s="16"/>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
-      <c r="E218" s="19"/>
-      <c r="F218" s="17"/>
+      <c r="E218" s="18"/>
+      <c r="F218" s="16"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
-      <c r="E219" s="19"/>
-      <c r="F219" s="17"/>
+      <c r="E219" s="18"/>
+      <c r="F219" s="16"/>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
-      <c r="E220" s="19"/>
-      <c r="F220" s="17"/>
+      <c r="E220" s="18"/>
+      <c r="F220" s="16"/>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
-      <c r="E221" s="19"/>
-      <c r="F221" s="17"/>
+      <c r="E221" s="18"/>
+      <c r="F221" s="16"/>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
-      <c r="E222" s="19"/>
-      <c r="F222" s="17"/>
+      <c r="E222" s="18"/>
+      <c r="F222" s="16"/>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
-      <c r="E223" s="19"/>
-      <c r="F223" s="17"/>
+      <c r="E223" s="18"/>
+      <c r="F223" s="16"/>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
-      <c r="E224" s="19"/>
-      <c r="F224" s="17"/>
+      <c r="E224" s="18"/>
+      <c r="F224" s="16"/>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
-      <c r="E225" s="19"/>
-      <c r="F225" s="17"/>
+      <c r="E225" s="18"/>
+      <c r="F225" s="16"/>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
-      <c r="E226" s="19"/>
-      <c r="F226" s="17"/>
+      <c r="E226" s="18"/>
+      <c r="F226" s="16"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
-      <c r="E227" s="19"/>
-      <c r="F227" s="17"/>
+      <c r="E227" s="18"/>
+      <c r="F227" s="16"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
-      <c r="E228" s="19"/>
-      <c r="F228" s="17"/>
+      <c r="E228" s="18"/>
+      <c r="F228" s="16"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
-      <c r="E229" s="19"/>
-      <c r="F229" s="17"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="16"/>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
-      <c r="E230" s="19"/>
-      <c r="F230" s="17"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="16"/>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
-      <c r="E231" s="19"/>
-      <c r="F231" s="17"/>
+      <c r="E231" s="18"/>
+      <c r="F231" s="16"/>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
-      <c r="E232" s="19"/>
-      <c r="F232" s="17"/>
+      <c r="E232" s="18"/>
+      <c r="F232" s="16"/>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
-      <c r="E233" s="19"/>
-      <c r="F233" s="17"/>
+      <c r="E233" s="18"/>
+      <c r="F233" s="16"/>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
-      <c r="E234" s="19"/>
-      <c r="F234" s="17"/>
+      <c r="E234" s="18"/>
+      <c r="F234" s="16"/>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
-      <c r="E235" s="19"/>
-      <c r="F235" s="17"/>
+      <c r="E235" s="18"/>
+      <c r="F235" s="16"/>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
-      <c r="E236" s="19"/>
-      <c r="F236" s="17"/>
+      <c r="E236" s="18"/>
+      <c r="F236" s="16"/>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
-      <c r="E237" s="19"/>
-      <c r="F237" s="17"/>
+      <c r="E237" s="18"/>
+      <c r="F237" s="16"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
-      <c r="E238" s="19"/>
-      <c r="F238" s="17"/>
+      <c r="E238" s="18"/>
+      <c r="F238" s="16"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
-      <c r="E239" s="19"/>
-      <c r="F239" s="17"/>
+      <c r="E239" s="18"/>
+      <c r="F239" s="16"/>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
-      <c r="E240" s="19"/>
-      <c r="F240" s="17"/>
+      <c r="E240" s="18"/>
+      <c r="F240" s="16"/>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
-      <c r="E241" s="19"/>
-      <c r="F241" s="17"/>
+      <c r="E241" s="18"/>
+      <c r="F241" s="16"/>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
-      <c r="E242" s="19"/>
-      <c r="F242" s="17"/>
+      <c r="E242" s="18"/>
+      <c r="F242" s="16"/>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
-      <c r="E243" s="19"/>
-      <c r="F243" s="17"/>
+      <c r="E243" s="18"/>
+      <c r="F243" s="16"/>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
-      <c r="E244" s="19"/>
-      <c r="F244" s="17"/>
+      <c r="E244" s="18"/>
+      <c r="F244" s="16"/>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
-      <c r="E245" s="19"/>
-      <c r="F245" s="17"/>
+      <c r="E245" s="18"/>
+      <c r="F245" s="16"/>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
-      <c r="E246" s="19"/>
-      <c r="F246" s="17"/>
+      <c r="E246" s="18"/>
+      <c r="F246" s="16"/>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
-      <c r="E247" s="19"/>
-      <c r="F247" s="17"/>
+      <c r="E247" s="18"/>
+      <c r="F247" s="16"/>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
-      <c r="E248" s="19"/>
-      <c r="F248" s="17"/>
+      <c r="E248" s="18"/>
+      <c r="F248" s="16"/>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
-      <c r="E249" s="19"/>
-      <c r="F249" s="17"/>
+      <c r="E249" s="18"/>
+      <c r="F249" s="16"/>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
-      <c r="E250" s="19"/>
-      <c r="F250" s="17"/>
+      <c r="E250" s="18"/>
+      <c r="F250" s="16"/>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
-      <c r="E251" s="19"/>
-      <c r="F251" s="17"/>
+      <c r="E251" s="18"/>
+      <c r="F251" s="16"/>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
-      <c r="E252" s="19"/>
-      <c r="F252" s="17"/>
+      <c r="E252" s="18"/>
+      <c r="F252" s="16"/>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
-      <c r="E253" s="19"/>
-      <c r="F253" s="17"/>
+      <c r="E253" s="18"/>
+      <c r="F253" s="16"/>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
-      <c r="E254" s="19"/>
-      <c r="F254" s="17"/>
+      <c r="E254" s="18"/>
+      <c r="F254" s="16"/>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
-      <c r="E255" s="19"/>
-      <c r="F255" s="17"/>
+      <c r="E255" s="18"/>
+      <c r="F255" s="16"/>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
-      <c r="E256" s="19"/>
-      <c r="F256" s="17"/>
+      <c r="E256" s="18"/>
+      <c r="F256" s="16"/>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
-      <c r="E257" s="19"/>
-      <c r="F257" s="17"/>
+      <c r="E257" s="18"/>
+      <c r="F257" s="16"/>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
-      <c r="E258" s="19"/>
-      <c r="F258" s="17"/>
+      <c r="E258" s="18"/>
+      <c r="F258" s="16"/>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
-      <c r="E259" s="19"/>
-      <c r="F259" s="17"/>
+      <c r="E259" s="18"/>
+      <c r="F259" s="16"/>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
-      <c r="E260" s="19"/>
-      <c r="F260" s="17"/>
+      <c r="E260" s="18"/>
+      <c r="F260" s="16"/>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
-      <c r="E261" s="19"/>
-      <c r="F261" s="17"/>
+      <c r="E261" s="18"/>
+      <c r="F261" s="16"/>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
-      <c r="E262" s="19"/>
-      <c r="F262" s="17"/>
+      <c r="E262" s="18"/>
+      <c r="F262" s="16"/>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
-      <c r="E263" s="19"/>
-      <c r="F263" s="17"/>
+      <c r="E263" s="18"/>
+      <c r="F263" s="16"/>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
-      <c r="E264" s="19"/>
-      <c r="F264" s="17"/>
+      <c r="E264" s="18"/>
+      <c r="F264" s="16"/>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
-      <c r="E265" s="19"/>
-      <c r="F265" s="17"/>
+      <c r="E265" s="18"/>
+      <c r="F265" s="16"/>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
-      <c r="E266" s="19"/>
-      <c r="F266" s="17"/>
+      <c r="E266" s="18"/>
+      <c r="F266" s="16"/>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
-      <c r="E267" s="19"/>
-      <c r="F267" s="17"/>
+      <c r="E267" s="18"/>
+      <c r="F267" s="16"/>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
-      <c r="E268" s="19"/>
-      <c r="F268" s="17"/>
+      <c r="E268" s="18"/>
+      <c r="F268" s="16"/>
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
-      <c r="E269" s="19"/>
-      <c r="F269" s="17"/>
+      <c r="E269" s="18"/>
+      <c r="F269" s="16"/>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
-      <c r="E270" s="19"/>
-      <c r="F270" s="17"/>
+      <c r="E270" s="18"/>
+      <c r="F270" s="16"/>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
-      <c r="E271" s="19"/>
-      <c r="F271" s="17"/>
+      <c r="E271" s="18"/>
+      <c r="F271" s="16"/>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
-      <c r="E272" s="19"/>
-      <c r="F272" s="17"/>
+      <c r="E272" s="18"/>
+      <c r="F272" s="16"/>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
-      <c r="E273" s="19"/>
-      <c r="F273" s="17"/>
+      <c r="E273" s="18"/>
+      <c r="F273" s="16"/>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
-      <c r="E274" s="19"/>
-      <c r="F274" s="17"/>
+      <c r="E274" s="18"/>
+      <c r="F274" s="16"/>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
-      <c r="E275" s="19"/>
-      <c r="F275" s="17"/>
+      <c r="E275" s="18"/>
+      <c r="F275" s="16"/>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
-      <c r="E276" s="19"/>
-      <c r="F276" s="17"/>
+      <c r="E276" s="18"/>
+      <c r="F276" s="16"/>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
-      <c r="E277" s="19"/>
-      <c r="F277" s="17"/>
+      <c r="E277" s="18"/>
+      <c r="F277" s="16"/>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
-      <c r="E278" s="19"/>
-      <c r="F278" s="17"/>
+      <c r="E278" s="18"/>
+      <c r="F278" s="16"/>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
-      <c r="E279" s="19"/>
-      <c r="F279" s="17"/>
+      <c r="E279" s="18"/>
+      <c r="F279" s="16"/>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
-      <c r="E280" s="19"/>
-      <c r="F280" s="17"/>
+      <c r="E280" s="18"/>
+      <c r="F280" s="16"/>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
-      <c r="E281" s="19"/>
-      <c r="F281" s="17"/>
+      <c r="E281" s="18"/>
+      <c r="F281" s="16"/>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
-      <c r="E282" s="19"/>
-      <c r="F282" s="17"/>
+      <c r="E282" s="18"/>
+      <c r="F282" s="16"/>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
-      <c r="E283" s="19"/>
-      <c r="F283" s="17"/>
+      <c r="E283" s="18"/>
+      <c r="F283" s="16"/>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
-      <c r="E284" s="19"/>
-      <c r="F284" s="17"/>
+      <c r="E284" s="18"/>
+      <c r="F284" s="16"/>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
-      <c r="E285" s="19"/>
-      <c r="F285" s="17"/>
+      <c r="E285" s="18"/>
+      <c r="F285" s="16"/>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
-      <c r="E286" s="19"/>
-      <c r="F286" s="17"/>
+      <c r="E286" s="18"/>
+      <c r="F286" s="16"/>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
-      <c r="E287" s="19"/>
-      <c r="F287" s="17"/>
+      <c r="E287" s="18"/>
+      <c r="F287" s="16"/>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
-      <c r="E288" s="19"/>
-      <c r="F288" s="17"/>
+      <c r="E288" s="18"/>
+      <c r="F288" s="16"/>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
-      <c r="E289" s="19"/>
-      <c r="F289" s="17"/>
+      <c r="E289" s="18"/>
+      <c r="F289" s="16"/>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
-      <c r="E290" s="19"/>
-      <c r="F290" s="17"/>
+      <c r="E290" s="18"/>
+      <c r="F290" s="16"/>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
-      <c r="E291" s="19"/>
-      <c r="F291" s="17"/>
+      <c r="E291" s="18"/>
+      <c r="F291" s="16"/>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
-      <c r="E292" s="19"/>
-      <c r="F292" s="17"/>
+      <c r="E292" s="18"/>
+      <c r="F292" s="16"/>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
-      <c r="E293" s="19"/>
-      <c r="F293" s="17"/>
+      <c r="E293" s="18"/>
+      <c r="F293" s="16"/>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
-      <c r="E294" s="19"/>
-      <c r="F294" s="17"/>
+      <c r="E294" s="18"/>
+      <c r="F294" s="16"/>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
-      <c r="E295" s="19"/>
-      <c r="F295" s="17"/>
+      <c r="E295" s="18"/>
+      <c r="F295" s="16"/>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
-      <c r="E296" s="19"/>
-      <c r="F296" s="17"/>
+      <c r="E296" s="18"/>
+      <c r="F296" s="16"/>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
-      <c r="E297" s="19"/>
-      <c r="F297" s="17"/>
+      <c r="E297" s="18"/>
+      <c r="F297" s="16"/>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
-      <c r="E298" s="19"/>
-      <c r="F298" s="17"/>
+      <c r="E298" s="18"/>
+      <c r="F298" s="16"/>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
-      <c r="E299" s="19"/>
-      <c r="F299" s="17"/>
+      <c r="E299" s="18"/>
+      <c r="F299" s="16"/>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
-      <c r="E300" s="19"/>
-      <c r="F300" s="17"/>
+      <c r="E300" s="18"/>
+      <c r="F300" s="16"/>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
-      <c r="E301" s="19"/>
-      <c r="F301" s="17"/>
+      <c r="E301" s="18"/>
+      <c r="F301" s="16"/>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
-      <c r="E302" s="19"/>
-      <c r="F302" s="17"/>
+      <c r="E302" s="18"/>
+      <c r="F302" s="16"/>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
-      <c r="E303" s="19"/>
-      <c r="F303" s="17"/>
+      <c r="E303" s="18"/>
+      <c r="F303" s="16"/>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
-      <c r="E304" s="19"/>
-      <c r="F304" s="17"/>
+      <c r="E304" s="18"/>
+      <c r="F304" s="16"/>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
-      <c r="E305" s="19"/>
-      <c r="F305" s="17"/>
+      <c r="E305" s="18"/>
+      <c r="F305" s="16"/>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
-      <c r="E306" s="19"/>
-      <c r="F306" s="17"/>
+      <c r="E306" s="18"/>
+      <c r="F306" s="16"/>
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
-      <c r="E307" s="19"/>
-      <c r="F307" s="17"/>
+      <c r="E307" s="18"/>
+      <c r="F307" s="16"/>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
-      <c r="E308" s="19"/>
-      <c r="F308" s="17"/>
+      <c r="E308" s="18"/>
+      <c r="F308" s="16"/>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
-      <c r="E309" s="19"/>
-      <c r="F309" s="17"/>
+      <c r="E309" s="18"/>
+      <c r="F309" s="16"/>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
-      <c r="E310" s="19"/>
-      <c r="F310" s="17"/>
+      <c r="E310" s="18"/>
+      <c r="F310" s="16"/>
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
-      <c r="E311" s="19"/>
-      <c r="F311" s="17"/>
+      <c r="E311" s="18"/>
+      <c r="F311" s="16"/>
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
-      <c r="E312" s="19"/>
-      <c r="F312" s="17"/>
+      <c r="E312" s="18"/>
+      <c r="F312" s="16"/>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
-      <c r="E313" s="19"/>
-      <c r="F313" s="17"/>
+      <c r="E313" s="18"/>
+      <c r="F313" s="16"/>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
-      <c r="E314" s="19"/>
-      <c r="F314" s="17"/>
+      <c r="E314" s="18"/>
+      <c r="F314" s="16"/>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
-      <c r="E315" s="19"/>
-      <c r="F315" s="17"/>
+      <c r="E315" s="18"/>
+      <c r="F315" s="16"/>
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
-      <c r="E316" s="19"/>
-      <c r="F316" s="17"/>
+      <c r="E316" s="18"/>
+      <c r="F316" s="16"/>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
-      <c r="E317" s="19"/>
-      <c r="F317" s="17"/>
+      <c r="E317" s="18"/>
+      <c r="F317" s="16"/>
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
-      <c r="E318" s="19"/>
-      <c r="F318" s="17"/>
+      <c r="E318" s="18"/>
+      <c r="F318" s="16"/>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
-      <c r="E319" s="19"/>
-      <c r="F319" s="17"/>
+      <c r="E319" s="18"/>
+      <c r="F319" s="16"/>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
-      <c r="E320" s="19"/>
-      <c r="F320" s="17"/>
+      <c r="E320" s="18"/>
+      <c r="F320" s="16"/>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
-      <c r="E321" s="19"/>
-      <c r="F321" s="17"/>
+      <c r="E321" s="18"/>
+      <c r="F321" s="16"/>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
-      <c r="E322" s="19"/>
-      <c r="F322" s="17"/>
+      <c r="E322" s="18"/>
+      <c r="F322" s="16"/>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
-      <c r="E323" s="19"/>
-      <c r="F323" s="17"/>
+      <c r="E323" s="18"/>
+      <c r="F323" s="16"/>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
-      <c r="E324" s="19"/>
-      <c r="F324" s="17"/>
+      <c r="E324" s="18"/>
+      <c r="F324" s="16"/>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
-      <c r="E325" s="19"/>
-      <c r="F325" s="17"/>
+      <c r="E325" s="18"/>
+      <c r="F325" s="16"/>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
-      <c r="E326" s="19"/>
-      <c r="F326" s="17"/>
+      <c r="E326" s="18"/>
+      <c r="F326" s="16"/>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
-      <c r="E327" s="19"/>
-      <c r="F327" s="17"/>
+      <c r="E327" s="18"/>
+      <c r="F327" s="16"/>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
-      <c r="E328" s="19"/>
-      <c r="F328" s="17"/>
+      <c r="E328" s="18"/>
+      <c r="F328" s="16"/>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
-      <c r="E329" s="19"/>
-      <c r="F329" s="17"/>
+      <c r="E329" s="18"/>
+      <c r="F329" s="16"/>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
-      <c r="E330" s="19"/>
-      <c r="F330" s="17"/>
+      <c r="E330" s="18"/>
+      <c r="F330" s="16"/>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
-      <c r="E331" s="19"/>
-      <c r="F331" s="17"/>
+      <c r="E331" s="18"/>
+      <c r="F331" s="16"/>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
-      <c r="E332" s="19"/>
-      <c r="F332" s="17"/>
+      <c r="E332" s="18"/>
+      <c r="F332" s="16"/>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
-      <c r="E333" s="19"/>
-      <c r="F333" s="17"/>
+      <c r="E333" s="18"/>
+      <c r="F333" s="16"/>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
-      <c r="E334" s="19"/>
-      <c r="F334" s="17"/>
+      <c r="E334" s="18"/>
+      <c r="F334" s="16"/>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
-      <c r="E335" s="19"/>
-      <c r="F335" s="17"/>
+      <c r="E335" s="18"/>
+      <c r="F335" s="16"/>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
-      <c r="E336" s="19"/>
-      <c r="F336" s="17"/>
+      <c r="E336" s="18"/>
+      <c r="F336" s="16"/>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
-      <c r="E337" s="19"/>
-      <c r="F337" s="17"/>
+      <c r="E337" s="18"/>
+      <c r="F337" s="16"/>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
-      <c r="E338" s="19"/>
-      <c r="F338" s="17"/>
+      <c r="E338" s="18"/>
+      <c r="F338" s="16"/>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
-      <c r="E339" s="19"/>
-      <c r="F339" s="17"/>
+      <c r="E339" s="18"/>
+      <c r="F339" s="16"/>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
-      <c r="E340" s="19"/>
-      <c r="F340" s="17"/>
+      <c r="E340" s="18"/>
+      <c r="F340" s="16"/>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
-      <c r="E341" s="19"/>
-      <c r="F341" s="17"/>
+      <c r="E341" s="18"/>
+      <c r="F341" s="16"/>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
-      <c r="E342" s="19"/>
-      <c r="F342" s="17"/>
+      <c r="E342" s="18"/>
+      <c r="F342" s="16"/>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
-      <c r="E343" s="19"/>
-      <c r="F343" s="17"/>
+      <c r="E343" s="18"/>
+      <c r="F343" s="16"/>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
-      <c r="E344" s="19"/>
-      <c r="F344" s="17"/>
+      <c r="E344" s="18"/>
+      <c r="F344" s="16"/>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
-      <c r="E345" s="19"/>
-      <c r="F345" s="17"/>
+      <c r="E345" s="18"/>
+      <c r="F345" s="16"/>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
-      <c r="E346" s="19"/>
-      <c r="F346" s="17"/>
+      <c r="E346" s="18"/>
+      <c r="F346" s="16"/>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
-      <c r="E347" s="19"/>
-      <c r="F347" s="17"/>
+      <c r="E347" s="18"/>
+      <c r="F347" s="16"/>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
-      <c r="E348" s="19"/>
-      <c r="F348" s="17"/>
+      <c r="E348" s="18"/>
+      <c r="F348" s="16"/>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
-      <c r="E349" s="19"/>
-      <c r="F349" s="17"/>
+      <c r="E349" s="18"/>
+      <c r="F349" s="16"/>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
-      <c r="E350" s="19"/>
-      <c r="F350" s="17"/>
+      <c r="E350" s="18"/>
+      <c r="F350" s="16"/>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
-      <c r="E351" s="19"/>
-      <c r="F351" s="17"/>
+      <c r="E351" s="18"/>
+      <c r="F351" s="16"/>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
-      <c r="E352" s="19"/>
-      <c r="F352" s="17"/>
+      <c r="E352" s="18"/>
+      <c r="F352" s="16"/>
     </row>
     <row r="353" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
-      <c r="E353" s="19"/>
-      <c r="F353" s="17"/>
+      <c r="E353" s="18"/>
+      <c r="F353" s="16"/>
     </row>
     <row r="354" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
-      <c r="E354" s="19"/>
-      <c r="F354" s="17"/>
+      <c r="E354" s="18"/>
+      <c r="F354" s="16"/>
     </row>
     <row r="355" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
-      <c r="E355" s="19"/>
-      <c r="F355" s="17"/>
+      <c r="E355" s="18"/>
+      <c r="F355" s="16"/>
     </row>
     <row r="356" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
-      <c r="E356" s="19"/>
-      <c r="F356" s="17"/>
+      <c r="E356" s="18"/>
+      <c r="F356" s="16"/>
     </row>
     <row r="357" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
-      <c r="E357" s="19"/>
-      <c r="F357" s="17"/>
+      <c r="E357" s="18"/>
+      <c r="F357" s="16"/>
     </row>
     <row r="358" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
-      <c r="E358" s="19"/>
-      <c r="F358" s="17"/>
+      <c r="E358" s="18"/>
+      <c r="F358" s="16"/>
     </row>
     <row r="359" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
-      <c r="E359" s="19"/>
-      <c r="F359" s="17"/>
+      <c r="E359" s="18"/>
+      <c r="F359" s="16"/>
     </row>
     <row r="360" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
-      <c r="E360" s="19"/>
-      <c r="F360" s="17"/>
+      <c r="E360" s="18"/>
+      <c r="F360" s="16"/>
     </row>
     <row r="361" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
-      <c r="E361" s="19"/>
-      <c r="F361" s="17"/>
+      <c r="E361" s="18"/>
+      <c r="F361" s="16"/>
     </row>
     <row r="362" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
-      <c r="E362" s="19"/>
-      <c r="F362" s="17"/>
+      <c r="E362" s="18"/>
+      <c r="F362" s="16"/>
     </row>
     <row r="363" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
-      <c r="E363" s="19"/>
-      <c r="F363" s="17"/>
+      <c r="E363" s="18"/>
+      <c r="F363" s="16"/>
     </row>
     <row r="364" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
-      <c r="E364" s="19"/>
-      <c r="F364" s="17"/>
+      <c r="E364" s="18"/>
+      <c r="F364" s="16"/>
     </row>
     <row r="365" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
-      <c r="E365" s="19"/>
-      <c r="F365" s="17"/>
+      <c r="E365" s="18"/>
+      <c r="F365" s="16"/>
     </row>
     <row r="366" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
-      <c r="E366" s="19"/>
-      <c r="F366" s="17"/>
+      <c r="E366" s="18"/>
+      <c r="F366" s="16"/>
     </row>
     <row r="367" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
-      <c r="E367" s="19"/>
-      <c r="F367" s="17"/>
+      <c r="E367" s="18"/>
+      <c r="F367" s="16"/>
     </row>
     <row r="368" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
-      <c r="E368" s="19"/>
-      <c r="F368" s="17"/>
+      <c r="E368" s="18"/>
+      <c r="F368" s="16"/>
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
-      <c r="E369" s="19"/>
-      <c r="F369" s="17"/>
+      <c r="E369" s="18"/>
+      <c r="F369" s="16"/>
     </row>
     <row r="370" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
-      <c r="E370" s="19"/>
-      <c r="F370" s="17"/>
+      <c r="E370" s="18"/>
+      <c r="F370" s="16"/>
     </row>
     <row r="371" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
-      <c r="E371" s="19"/>
-      <c r="F371" s="17"/>
+      <c r="E371" s="18"/>
+      <c r="F371" s="16"/>
     </row>
     <row r="372" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
-      <c r="E372" s="19"/>
-      <c r="F372" s="17"/>
+      <c r="E372" s="18"/>
+      <c r="F372" s="16"/>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
-      <c r="E373" s="19"/>
-      <c r="F373" s="17"/>
+      <c r="E373" s="18"/>
+      <c r="F373" s="16"/>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
-      <c r="E374" s="19"/>
-      <c r="F374" s="17"/>
+      <c r="E374" s="18"/>
+      <c r="F374" s="16"/>
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
-      <c r="E375" s="19"/>
-      <c r="F375" s="17"/>
+      <c r="E375" s="18"/>
+      <c r="F375" s="16"/>
     </row>
     <row r="376" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
-      <c r="E376" s="19"/>
-      <c r="F376" s="17"/>
+      <c r="E376" s="18"/>
+      <c r="F376" s="16"/>
     </row>
     <row r="377" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
-      <c r="E377" s="19"/>
-      <c r="F377" s="17"/>
+      <c r="E377" s="18"/>
+      <c r="F377" s="16"/>
     </row>
     <row r="378" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
-      <c r="E378" s="19"/>
-      <c r="F378" s="17"/>
+      <c r="E378" s="18"/>
+      <c r="F378" s="16"/>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
-      <c r="E379" s="19"/>
-      <c r="F379" s="17"/>
+      <c r="E379" s="18"/>
+      <c r="F379" s="16"/>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
-      <c r="E380" s="19"/>
-      <c r="F380" s="17"/>
+      <c r="E380" s="18"/>
+      <c r="F380" s="16"/>
     </row>
     <row r="381" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
-      <c r="E381" s="19"/>
-      <c r="F381" s="17"/>
+      <c r="E381" s="18"/>
+      <c r="F381" s="16"/>
     </row>
     <row r="382" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
-      <c r="E382" s="19"/>
-      <c r="F382" s="17"/>
+      <c r="E382" s="18"/>
+      <c r="F382" s="16"/>
     </row>
     <row r="383" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
-      <c r="E383" s="19"/>
-      <c r="F383" s="17"/>
+      <c r="E383" s="18"/>
+      <c r="F383" s="16"/>
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
-      <c r="E384" s="19"/>
-      <c r="F384" s="17"/>
+      <c r="E384" s="18"/>
+      <c r="F384" s="16"/>
     </row>
     <row r="385" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
-      <c r="E385" s="19"/>
-      <c r="F385" s="17"/>
+      <c r="E385" s="18"/>
+      <c r="F385" s="16"/>
     </row>
     <row r="386" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
-      <c r="E386" s="19"/>
-      <c r="F386" s="17"/>
+      <c r="E386" s="18"/>
+      <c r="F386" s="16"/>
     </row>
     <row r="387" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
-      <c r="E387" s="19"/>
-      <c r="F387" s="17"/>
+      <c r="E387" s="18"/>
+      <c r="F387" s="16"/>
     </row>
     <row r="388" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
-      <c r="E388" s="19"/>
-      <c r="F388" s="17"/>
+      <c r="E388" s="18"/>
+      <c r="F388" s="16"/>
     </row>
     <row r="389" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
-      <c r="E389" s="19"/>
-      <c r="F389" s="17"/>
+      <c r="E389" s="18"/>
+      <c r="F389" s="16"/>
     </row>
     <row r="390" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
-      <c r="E390" s="19"/>
-      <c r="F390" s="17"/>
+      <c r="E390" s="18"/>
+      <c r="F390" s="16"/>
     </row>
     <row r="391" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
-      <c r="E391" s="19"/>
-      <c r="F391" s="17"/>
+      <c r="E391" s="18"/>
+      <c r="F391" s="16"/>
     </row>
     <row r="392" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
-      <c r="E392" s="19"/>
-      <c r="F392" s="17"/>
+      <c r="E392" s="18"/>
+      <c r="F392" s="16"/>
     </row>
     <row r="393" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
-      <c r="E393" s="19"/>
-      <c r="F393" s="17"/>
+      <c r="E393" s="18"/>
+      <c r="F393" s="16"/>
     </row>
     <row r="394" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
-      <c r="E394" s="19"/>
+      <c r="E394" s="18"/>
     </row>
     <row r="395" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
-      <c r="E395" s="19"/>
+      <c r="E395" s="18"/>
     </row>
     <row r="396" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
-      <c r="E396" s="19"/>
+      <c r="E396" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Vokabeln.xlsx
+++ b/Vokabeln.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D741F2AA-20A6-48F1-B180-89903717EAC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF72EF5-289A-45B7-8229-128A5B862AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D097F432-8699-42C1-A3E5-290C4350ECF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{D097F432-8699-42C1-A3E5-290C4350ECF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="561">
   <si>
     <t>English</t>
   </si>
@@ -1516,10 +1516,217 @@
     <t>今日は</t>
   </si>
   <si>
-    <t>こんいちは</t>
-  </si>
-  <si>
     <t>Dare ga tazunerumashita ka</t>
+  </si>
+  <si>
+    <t>こんにちは</t>
+  </si>
+  <si>
+    <t>murasagi</t>
+  </si>
+  <si>
+    <t>sasu</t>
+  </si>
+  <si>
+    <t>shiro</t>
+  </si>
+  <si>
+    <t>sotsugyou</t>
+  </si>
+  <si>
+    <t>jikan</t>
+  </si>
+  <si>
+    <t>saru</t>
+  </si>
+  <si>
+    <t>ase</t>
+  </si>
+  <si>
+    <t>anzen</t>
+  </si>
+  <si>
+    <t>zou</t>
+  </si>
+  <si>
+    <t>genzai</t>
+  </si>
+  <si>
+    <t>shika</t>
+  </si>
+  <si>
+    <t>suzushii</t>
+  </si>
+  <si>
+    <t>osoi</t>
+  </si>
+  <si>
+    <t>suki</t>
+  </si>
+  <si>
+    <t>suuji</t>
+  </si>
+  <si>
+    <t>suika</t>
+  </si>
+  <si>
+    <t>sekai</t>
+  </si>
+  <si>
+    <t>kazu</t>
+  </si>
+  <si>
+    <t>zubon</t>
+  </si>
+  <si>
+    <t>shinbun</t>
+  </si>
+  <si>
+    <t>tsukue</t>
+  </si>
+  <si>
+    <t>samui</t>
+  </si>
+  <si>
+    <t>wakusei</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>to point</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>graduation</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>monkey</t>
+  </si>
+  <si>
+    <t>sweat</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>currently, at present</t>
+  </si>
+  <si>
+    <t>deer</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>slow, late</t>
+  </si>
+  <si>
+    <t>legs, feet</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>newspaper</t>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>planet</t>
+  </si>
+  <si>
+    <t>むらさぎ</t>
+  </si>
+  <si>
+    <t>さす</t>
+  </si>
+  <si>
+    <t>しと</t>
+  </si>
+  <si>
+    <t>そつぎょう</t>
+  </si>
+  <si>
+    <t>じかん</t>
+  </si>
+  <si>
+    <t>さる</t>
+  </si>
+  <si>
+    <t>あせ</t>
+  </si>
+  <si>
+    <t>あにぇん</t>
+  </si>
+  <si>
+    <t>よう</t>
+  </si>
+  <si>
+    <t>げにゃい</t>
+  </si>
+  <si>
+    <t>しか</t>
+  </si>
+  <si>
+    <t>すずしい</t>
+  </si>
+  <si>
+    <t>おそい</t>
+  </si>
+  <si>
+    <t>すき</t>
+  </si>
+  <si>
+    <t>すうじ</t>
+  </si>
+  <si>
+    <t>すいか</t>
+  </si>
+  <si>
+    <t>せかい</t>
+  </si>
+  <si>
+    <t>かず</t>
+  </si>
+  <si>
+    <t>ずぼん</t>
+  </si>
+  <si>
+    <t>しんぶん</t>
+  </si>
+  <si>
+    <t>つくえ</t>
+  </si>
+  <si>
+    <t>さむい</t>
+  </si>
+  <si>
+    <t>わくせい</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA9EA53-0633-4A3E-A981-7F5A74FF8FC5}">
   <dimension ref="A1:F435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
@@ -3453,7 +3660,7 @@
         <v>428</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>489</v>
@@ -3719,7 +3926,7 @@
         <v>482</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="13"/>
@@ -5933,8 +6140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA7744C-B8B8-48D7-8A33-004AE603749E}">
   <dimension ref="B1:F396"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6558,198 +6765,366 @@
       <c r="F55" s="15"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="E56" s="17"/>
       <c r="F56" s="15"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="E57" s="17"/>
       <c r="F57" s="15"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>540</v>
+      </c>
       <c r="E58" s="17"/>
       <c r="F58" s="15"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>541</v>
+      </c>
       <c r="E59" s="17"/>
       <c r="F59" s="15"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="E60" s="17"/>
       <c r="F60" s="15"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="E61" s="17"/>
       <c r="F61" s="15"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="E62" s="17"/>
       <c r="F62" s="15"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="E63" s="17"/>
       <c r="F63" s="15"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="E64" s="17"/>
       <c r="F64" s="15"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>546</v>
+      </c>
       <c r="E65" s="17"/>
       <c r="F65" s="15"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>547</v>
+      </c>
       <c r="E66" s="17"/>
       <c r="F66" s="15"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>548</v>
+      </c>
       <c r="E67" s="17"/>
       <c r="F67" s="15"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="E68" s="17"/>
       <c r="F68" s="15"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>549</v>
+      </c>
       <c r="E69" s="17"/>
       <c r="F69" s="15"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>550</v>
+      </c>
       <c r="E70" s="17"/>
       <c r="F70" s="15"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E71" s="17"/>
       <c r="F71" s="15"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="E72" s="17"/>
       <c r="F72" s="15"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>551</v>
+      </c>
       <c r="E73" s="17"/>
       <c r="F73" s="15"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>552</v>
+      </c>
       <c r="E74" s="17"/>
       <c r="F74" s="15"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="E75" s="17"/>
       <c r="F75" s="15"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="E76" s="17"/>
       <c r="F76" s="15"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>555</v>
+      </c>
       <c r="E77" s="17"/>
       <c r="F77" s="15"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E78" s="17"/>
       <c r="F78" s="15"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>556</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="15"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="E80" s="17"/>
       <c r="F80" s="15"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="15"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>559</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="15"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="15"/>
     </row>

--- a/Vokabeln.xlsx
+++ b/Vokabeln.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597309F1-6792-4365-9BDF-100776DB5BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DB7EFD-82F1-4F56-A8F1-4F4671323F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D097F432-8699-42C1-A3E5-290C4350ECF2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="1044">
   <si>
     <t>English</t>
   </si>
@@ -3006,10 +3006,179 @@
     <t>2 / 3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Please come in</t>
+  </si>
+  <si>
+    <t>I will come in</t>
+  </si>
+  <si>
+    <t>Please wait a moment</t>
+  </si>
+  <si>
+    <t>Here you are</t>
+  </si>
+  <si>
+    <t>douzo</t>
+  </si>
+  <si>
+    <t>ojamashimasu</t>
+  </si>
+  <si>
+    <t>(hai) douzo</t>
+  </si>
+  <si>
+    <t>When giving sth to sb</t>
+  </si>
+  <si>
+    <t>When entering sb House. 
+Literally "I will bother you"</t>
+  </si>
+  <si>
+    <t>どうぞ</t>
+  </si>
+  <si>
+    <t>おじゃまします</t>
+  </si>
+  <si>
+    <t>ちょっとまってください</t>
+  </si>
+  <si>
+    <t>お邪魔します</t>
+  </si>
+  <si>
+    <t>Let's see…</t>
+  </si>
+  <si>
+    <t>sou desu ne…</t>
+  </si>
+  <si>
+    <t>そうですね…</t>
+  </si>
+  <si>
+    <t>ちょっと待ってください。</t>
+  </si>
+  <si>
+    <t>どうぞ。</t>
+  </si>
+  <si>
+    <t>（はい）どうぞ。</t>
+  </si>
+  <si>
+    <t>chotto matte kudasai</t>
+  </si>
+  <si>
+    <t>1, 1</t>
+  </si>
+  <si>
+    <t>(1) 1</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>airplane</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>ship; boat</t>
+  </si>
+  <si>
+    <t>tricycle</t>
+  </si>
+  <si>
+    <t>fire truck</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t>bullet train</t>
+  </si>
+  <si>
+    <t>patrol car</t>
+  </si>
+  <si>
+    <t>hikouki</t>
+  </si>
+  <si>
+    <t>densha</t>
+  </si>
+  <si>
+    <t>basu</t>
+  </si>
+  <si>
+    <t>fune</t>
+  </si>
+  <si>
+    <t>sanrinsha</t>
+  </si>
+  <si>
+    <t>shinkansen</t>
+  </si>
+  <si>
+    <t>ひこうき</t>
+  </si>
+  <si>
+    <t>でんしゃ</t>
+  </si>
+  <si>
+    <t>ふね</t>
+  </si>
+  <si>
+    <t>さんりんしゃ</t>
+  </si>
+  <si>
+    <t>shoubousha</t>
+  </si>
+  <si>
+    <t>しょうぼうしゃ</t>
+  </si>
+  <si>
+    <t>しんかんせん</t>
+  </si>
+  <si>
+    <t>patoka-</t>
+  </si>
+  <si>
+    <t>パトカー</t>
+  </si>
+  <si>
+    <t>バス</t>
+  </si>
+  <si>
+    <t>飛行機</t>
+  </si>
+  <si>
+    <t>電車</t>
+  </si>
+  <si>
+    <t>船</t>
+  </si>
+  <si>
+    <t>三輪車</t>
+  </si>
+  <si>
+    <t>消防車</t>
+  </si>
+  <si>
+    <t>新幹線</t>
+  </si>
+  <si>
+    <t>自転車</t>
+  </si>
+  <si>
+    <t>jitensha</t>
+  </si>
+  <si>
+    <t>じてんしゃ</t>
   </si>
 </sst>
 </file>
@@ -3226,7 +3395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3393,6 +3562,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3711,8 +3883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA9EA53-0633-4A3E-A981-7F5A74FF8FC5}">
   <dimension ref="A1:G436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F251" sqref="F251"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D258" sqref="D258:G258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -6338,8 +6510,8 @@
       <c r="E161" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="F161" s="33">
-        <v>1</v>
+      <c r="F161" s="33" t="s">
+        <v>986</v>
       </c>
       <c r="G161" s="2"/>
     </row>
@@ -7814,8 +7986,8 @@
       <c r="E250" s="13" t="s">
         <v>976</v>
       </c>
-      <c r="F250" s="33" t="s">
-        <v>986</v>
+      <c r="F250" s="58">
+        <v>2</v>
       </c>
       <c r="G250" s="2"/>
     </row>
@@ -7832,50 +8004,104 @@
       <c r="E251" s="13" t="s">
         <v>977</v>
       </c>
-      <c r="F251" s="33" t="s">
+      <c r="F251" s="58">
+        <v>1</v>
+      </c>
+      <c r="G251" s="2"/>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B252" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="G251" s="2"/>
-    </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="13"/>
-      <c r="F252" s="33"/>
+      <c r="C252" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="E252" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F252" s="33" t="s">
+        <v>572</v>
+      </c>
       <c r="G252" s="2"/>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-      <c r="E253" s="13"/>
-      <c r="F253" s="33"/>
-      <c r="G253" s="2"/>
+    <row r="253" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B253" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="E253" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="F253" s="33" t="s">
+        <v>771</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="13"/>
-      <c r="F254" s="33"/>
+      <c r="B254" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F254" s="33" t="s">
+        <v>572</v>
+      </c>
       <c r="G254" s="2"/>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="13"/>
-      <c r="F255" s="33"/>
+      <c r="B255" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="E255" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F255" s="33" t="s">
+        <v>1007</v>
+      </c>
       <c r="G255" s="2"/>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-      <c r="E256" s="13"/>
-      <c r="F256" s="33"/>
-      <c r="G256" s="2"/>
+      <c r="B256" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E256" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F256" s="33" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B257" s="2"/>
@@ -7886,90 +8112,172 @@
       <c r="G257" s="2"/>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
-      <c r="E258" s="13"/>
-      <c r="F258" s="33"/>
-      <c r="G258" s="2"/>
+      <c r="B258" s="38" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C258" s="27"/>
+      <c r="D258" s="27"/>
+      <c r="E258" s="28"/>
+      <c r="F258" s="48"/>
+      <c r="G258" s="27"/>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="13"/>
+      <c r="B259" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E259" s="13" t="s">
+        <v>349</v>
+      </c>
       <c r="F259" s="33"/>
       <c r="G259" s="2"/>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="13"/>
+      <c r="B260" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E260" s="13" t="s">
+        <v>1035</v>
+      </c>
       <c r="F260" s="33"/>
       <c r="G260" s="2"/>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
-      <c r="E261" s="13"/>
+      <c r="B261" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E261" s="13" t="s">
+        <v>1036</v>
+      </c>
       <c r="F261" s="33"/>
       <c r="G261" s="2"/>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="13"/>
+      <c r="B262" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E262" s="13" t="s">
+        <v>1034</v>
+      </c>
       <c r="F262" s="33"/>
       <c r="G262" s="2"/>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="13"/>
+      <c r="B263" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E263" s="13" t="s">
+        <v>1037</v>
+      </c>
       <c r="F263" s="33"/>
       <c r="G263" s="2"/>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="13"/>
+      <c r="B264" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E264" s="13" t="s">
+        <v>1038</v>
+      </c>
       <c r="F264" s="33"/>
       <c r="G264" s="2"/>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="13"/>
+      <c r="B265" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E265" s="13" t="s">
+        <v>1039</v>
+      </c>
       <c r="F265" s="33"/>
       <c r="G265" s="2"/>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="13"/>
+      <c r="B266" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E266" s="13" t="s">
+        <v>1041</v>
+      </c>
       <c r="F266" s="33"/>
       <c r="G266" s="2"/>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="13"/>
+      <c r="B267" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E267" s="13" t="s">
+        <v>1040</v>
+      </c>
       <c r="F267" s="33"/>
       <c r="G267" s="2"/>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="13"/>
+      <c r="B268" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E268" s="13" t="s">
+        <v>1033</v>
+      </c>
       <c r="F268" s="33"/>
       <c r="G268" s="2"/>
     </row>
